--- a/Code/Results/Cases/Case_5_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_30/res_bus/vm_pu.xlsx
@@ -421,37 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9876831145007818</v>
+        <v>1.005868436103729</v>
       </c>
       <c r="D2">
-        <v>1.007964975674175</v>
+        <v>1.02148290977885</v>
       </c>
       <c r="E2">
-        <v>0.9933581743827105</v>
+        <v>1.018892171457462</v>
       </c>
       <c r="F2">
-        <v>0.990206296864236</v>
+        <v>1.025539616726788</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03935980173148</v>
+        <v>1.043859990703646</v>
       </c>
       <c r="J2">
-        <v>1.010238567818114</v>
+        <v>1.027875028893313</v>
       </c>
       <c r="K2">
-        <v>1.019314449907138</v>
+        <v>1.032650851726726</v>
       </c>
       <c r="L2">
-        <v>1.004910822547852</v>
+        <v>1.030094436051907</v>
       </c>
       <c r="M2">
-        <v>1.001803781078824</v>
-      </c>
-      <c r="N2">
-        <v>1.005704707400593</v>
+        <v>1.036654251060444</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.99715788694966</v>
+        <v>1.014143372030928</v>
       </c>
       <c r="D3">
-        <v>1.015531631486693</v>
+        <v>1.027763268246126</v>
       </c>
       <c r="E3">
-        <v>1.001571534791602</v>
+        <v>1.026034966323856</v>
       </c>
       <c r="F3">
-        <v>1.000244746545256</v>
+        <v>1.033065188697834</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043005229141942</v>
+        <v>1.046287981890603</v>
       </c>
       <c r="J3">
-        <v>1.017726331837711</v>
+        <v>1.034255761991825</v>
       </c>
       <c r="K3">
-        <v>1.02596956556006</v>
+        <v>1.038052821499722</v>
       </c>
       <c r="L3">
-        <v>1.012184346951561</v>
+        <v>1.036345219125847</v>
       </c>
       <c r="M3">
-        <v>1.010874496751197</v>
-      </c>
-      <c r="N3">
-        <v>1.005704707400593</v>
+        <v>1.043291777059268</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003045808166609</v>
+        <v>1.019326212007096</v>
       </c>
       <c r="D4">
-        <v>1.020236339560935</v>
+        <v>1.031698591475281</v>
       </c>
       <c r="E4">
-        <v>1.006676102138119</v>
+        <v>1.030514944833464</v>
       </c>
       <c r="F4">
-        <v>1.006491058695393</v>
+        <v>1.037786264937222</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045253950388954</v>
+        <v>1.047795451855351</v>
       </c>
       <c r="J4">
-        <v>1.022371921459144</v>
+        <v>1.038248146067285</v>
       </c>
       <c r="K4">
-        <v>1.030096513874778</v>
+        <v>1.041428922247097</v>
       </c>
       <c r="L4">
-        <v>1.016694614777476</v>
+        <v>1.040258519193358</v>
       </c>
       <c r="M4">
-        <v>1.016511768585411</v>
-      </c>
-      <c r="N4">
-        <v>1.005704707400593</v>
+        <v>1.047449068477464</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005467211557348</v>
+        <v>1.021466501191021</v>
       </c>
       <c r="D5">
-        <v>1.022171609269841</v>
+        <v>1.033323993394546</v>
       </c>
       <c r="E5">
-        <v>1.008775370046519</v>
+        <v>1.032366368542113</v>
       </c>
       <c r="F5">
-        <v>1.009061790983828</v>
+        <v>1.039737574552781</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046174665164083</v>
+        <v>1.048414716503024</v>
       </c>
       <c r="J5">
-        <v>1.024280538695848</v>
+        <v>1.039895774106377</v>
       </c>
       <c r="K5">
-        <v>1.031791527074682</v>
+        <v>1.042821251350177</v>
       </c>
       <c r="L5">
-        <v>1.018547052256205</v>
+        <v>1.041874031318007</v>
       </c>
       <c r="M5">
-        <v>1.018830176316945</v>
-      </c>
-      <c r="N5">
-        <v>1.005704707400593</v>
+        <v>1.049165752605813</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.005870731310518</v>
+        <v>1.021823671528144</v>
       </c>
       <c r="D6">
-        <v>1.022494139348863</v>
+        <v>1.033595252518269</v>
       </c>
       <c r="E6">
-        <v>1.009125205007232</v>
+        <v>1.032675411667418</v>
       </c>
       <c r="F6">
-        <v>1.009490310063105</v>
+        <v>1.040063305539375</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046327858048438</v>
+        <v>1.048517865471505</v>
       </c>
       <c r="J6">
-        <v>1.024598491747418</v>
+        <v>1.04017066517919</v>
       </c>
       <c r="K6">
-        <v>1.032073864560678</v>
+        <v>1.043053490632062</v>
       </c>
       <c r="L6">
-        <v>1.018855611903515</v>
+        <v>1.042143594497474</v>
       </c>
       <c r="M6">
-        <v>1.019216536442172</v>
-      </c>
-      <c r="N6">
-        <v>1.005704707400593</v>
+        <v>1.049452223433416</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C7">
-        <v>1.003078369509825</v>
+        <v>1.01935495909734</v>
       </c>
       <c r="D7">
-        <v>1.020262362074156</v>
+        <v>1.031720421956573</v>
       </c>
       <c r="E7">
-        <v>1.006704331690739</v>
+        <v>1.030539806704428</v>
       </c>
       <c r="F7">
-        <v>1.006525620416297</v>
+        <v>1.037812467139346</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045266347754415</v>
+        <v>1.047803782436835</v>
       </c>
       <c r="J7">
-        <v>1.022397594747347</v>
+        <v>1.03827028030261</v>
       </c>
       <c r="K7">
-        <v>1.030119316036928</v>
+        <v>1.04144763065427</v>
       </c>
       <c r="L7">
-        <v>1.016719534701291</v>
+        <v>1.040280219933271</v>
       </c>
       <c r="M7">
-        <v>1.016542944611737</v>
-      </c>
-      <c r="N7">
-        <v>1.005704707400593</v>
+        <v>1.04747212647072</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9909381865952831</v>
+        <v>1.008702103256576</v>
       </c>
       <c r="D8">
-        <v>1.010563871418994</v>
+        <v>1.023633097772676</v>
       </c>
       <c r="E8">
-        <v>0.996179703308766</v>
+        <v>1.021336760381499</v>
       </c>
       <c r="F8">
-        <v>0.993653296318163</v>
+        <v>1.028114996568269</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040615688581822</v>
+        <v>1.044694185489086</v>
       </c>
       <c r="J8">
-        <v>1.012812558646836</v>
+        <v>1.030060852605907</v>
       </c>
       <c r="K8">
-        <v>1.021602624705366</v>
+        <v>1.034502183552172</v>
       </c>
       <c r="L8">
-        <v>1.007411672828486</v>
+        <v>1.032235264507694</v>
       </c>
       <c r="M8">
-        <v>1.00491992964629</v>
-      </c>
-      <c r="N8">
-        <v>1.005704707400593</v>
+        <v>1.038927137284158</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9674618336530809</v>
+        <v>0.9884897305013498</v>
       </c>
       <c r="D9">
-        <v>0.9918386595768484</v>
+        <v>1.008309898249797</v>
       </c>
       <c r="E9">
-        <v>0.9758379112729157</v>
+        <v>1.003931934096342</v>
       </c>
       <c r="F9">
-        <v>0.9688286871948629</v>
+        <v>1.009783222855635</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031487708472488</v>
+        <v>1.038689734472693</v>
       </c>
       <c r="J9">
-        <v>0.9942183411476211</v>
+        <v>1.014455597628721</v>
       </c>
       <c r="K9">
-        <v>1.005065551366435</v>
+        <v>1.021269576689053</v>
       </c>
       <c r="L9">
-        <v>0.9893355558235691</v>
+        <v>1.016961538906766</v>
       </c>
       <c r="M9">
-        <v>0.9824485881056182</v>
-      </c>
-      <c r="N9">
-        <v>1.005704707400593</v>
+        <v>1.022719543459946</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9500335172398419</v>
+        <v>0.9738432535395275</v>
       </c>
       <c r="D10">
-        <v>0.9779717339599616</v>
+        <v>0.9972324241589089</v>
       </c>
       <c r="E10">
-        <v>0.9607542560860811</v>
+        <v>0.9913681579487218</v>
       </c>
       <c r="F10">
-        <v>0.9504462267684295</v>
+        <v>0.9965555827001507</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024624674399461</v>
+        <v>1.034273339122702</v>
       </c>
       <c r="J10">
-        <v>0.9803801012665151</v>
+        <v>1.003134513791421</v>
       </c>
       <c r="K10">
-        <v>0.9927504413020338</v>
+        <v>1.011651828483933</v>
       </c>
       <c r="L10">
-        <v>0.9758701997519634</v>
+        <v>1.005895031767584</v>
       </c>
       <c r="M10">
-        <v>0.9657717924033909</v>
-      </c>
-      <c r="N10">
-        <v>1.005704707400593</v>
+        <v>1.010987306903918</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9419564129422288</v>
+        <v>0.9671685532126676</v>
       </c>
       <c r="D11">
-        <v>0.9715572159134669</v>
+        <v>0.9921934524790798</v>
       </c>
       <c r="E11">
-        <v>0.9537709823469804</v>
+        <v>0.9856565898746747</v>
       </c>
       <c r="F11">
-        <v>0.9419380775650897</v>
+        <v>0.9905433994826071</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021425066164557</v>
+        <v>1.032246700933456</v>
       </c>
       <c r="J11">
-        <v>0.9739604197487144</v>
+        <v>0.9979739455397707</v>
       </c>
       <c r="K11">
-        <v>0.9870362223786172</v>
+        <v>1.007264105911204</v>
       </c>
       <c r="L11">
-        <v>0.9696207430814658</v>
+        <v>1.000854167777313</v>
       </c>
       <c r="M11">
-        <v>0.9580448166623462</v>
-      </c>
-      <c r="N11">
-        <v>1.005704707400593</v>
+        <v>1.005645884437477</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9388647399046697</v>
+        <v>0.9646337462842508</v>
       </c>
       <c r="D12">
-        <v>0.9691041512387762</v>
+        <v>0.9902815264897642</v>
       </c>
       <c r="E12">
-        <v>0.9510993964023229</v>
+        <v>0.9834898997471202</v>
       </c>
       <c r="F12">
-        <v>0.9386830829107401</v>
+        <v>0.988262841761072</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.020197678839985</v>
+        <v>1.031475106748215</v>
       </c>
       <c r="J12">
-        <v>0.9715023876664155</v>
+        <v>0.9960141298075359</v>
       </c>
       <c r="K12">
-        <v>0.9848482098164699</v>
+        <v>1.00559731604599</v>
       </c>
       <c r="L12">
-        <v>0.9672275053278122</v>
+        <v>0.9989403933609813</v>
       </c>
       <c r="M12">
-        <v>0.9550874933019455</v>
-      </c>
-      <c r="N12">
-        <v>1.005704707400593</v>
+        <v>1.003618415591442</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9395322712419588</v>
+        <v>0.9651800822080778</v>
       </c>
       <c r="D13">
-        <v>0.9696336916105132</v>
+        <v>0.9906935291668404</v>
       </c>
       <c r="E13">
-        <v>0.9516761566728426</v>
+        <v>0.9839567835623877</v>
       </c>
       <c r="F13">
-        <v>0.9393858024208166</v>
+        <v>0.9887542544386909</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.020462804591431</v>
+        <v>1.031641496554156</v>
       </c>
       <c r="J13">
-        <v>0.9720331391885748</v>
+        <v>0.9964365336727794</v>
       </c>
       <c r="K13">
-        <v>0.9853206602236106</v>
+        <v>1.005956583668665</v>
       </c>
       <c r="L13">
-        <v>0.9677442827620928</v>
+        <v>0.9993528470355365</v>
       </c>
       <c r="M13">
-        <v>0.9557260009698558</v>
-      </c>
-      <c r="N13">
-        <v>1.005704707400593</v>
+        <v>1.004055353698083</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9417027977243696</v>
+        <v>0.9669601931625871</v>
       </c>
       <c r="D14">
-        <v>0.9713559393859912</v>
+        <v>0.992036256863153</v>
       </c>
       <c r="E14">
-        <v>0.9535517972213788</v>
+        <v>0.9854784396191083</v>
       </c>
       <c r="F14">
-        <v>0.9416710311331699</v>
+        <v>0.9903558833423672</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021324434376877</v>
+        <v>1.032183314802099</v>
       </c>
       <c r="J14">
-        <v>0.9737587975327383</v>
+        <v>0.9978128488371834</v>
       </c>
       <c r="K14">
-        <v>0.9868567501970024</v>
+        <v>1.007127105148954</v>
       </c>
       <c r="L14">
-        <v>0.9694244432010135</v>
+        <v>1.000696843688499</v>
       </c>
       <c r="M14">
-        <v>0.9578022153498313</v>
-      </c>
-      <c r="N14">
-        <v>1.005704707400593</v>
+        <v>1.005479205531307</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9430276132112149</v>
+        <v>0.9680494399398205</v>
       </c>
       <c r="D15">
-        <v>0.9724074444898667</v>
+        <v>0.9928581011151735</v>
       </c>
       <c r="E15">
-        <v>0.9546968182118418</v>
+        <v>0.9864098553540412</v>
       </c>
       <c r="F15">
-        <v>0.9430660750260357</v>
+        <v>0.9913362732597123</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.021849999877496</v>
+        <v>1.032514601139103</v>
       </c>
       <c r="J15">
-        <v>0.9748119860528875</v>
+        <v>0.9986550166170752</v>
       </c>
       <c r="K15">
-        <v>0.987794233006943</v>
+        <v>1.007843287296842</v>
       </c>
       <c r="L15">
-        <v>0.9704498148259214</v>
+        <v>1.001519313118232</v>
       </c>
       <c r="M15">
-        <v>0.9590695109852779</v>
-      </c>
-      <c r="N15">
-        <v>1.005704707400593</v>
+        <v>1.006350597537278</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,40 +953,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9505574421320461</v>
+        <v>0.974278768163004</v>
       </c>
       <c r="D16">
-        <v>0.9783880939060408</v>
+        <v>0.9975614251186536</v>
       </c>
       <c r="E16">
-        <v>0.9612074018928832</v>
+        <v>0.9917411387046633</v>
       </c>
       <c r="F16">
-        <v>0.9509983396354672</v>
+        <v>0.9969482183112489</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024831843958181</v>
+        <v>1.034405297853669</v>
       </c>
       <c r="J16">
-        <v>0.9807964007666469</v>
+        <v>1.003471220575669</v>
       </c>
       <c r="K16">
-        <v>0.9931209762039306</v>
+        <v>1.011938041148495</v>
       </c>
       <c r="L16">
-        <v>0.9762754065400048</v>
+        <v>1.006224006366714</v>
       </c>
       <c r="M16">
-        <v>0.9662730480864685</v>
-      </c>
-      <c r="N16">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.011335952617715</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +991,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9551311128368311</v>
+        <v>0.9780935382901238</v>
       </c>
       <c r="D17">
-        <v>0.9820241469155194</v>
+        <v>1.000444290865276</v>
       </c>
       <c r="E17">
-        <v>0.9651640306426705</v>
+        <v>0.9950097609772844</v>
       </c>
       <c r="F17">
-        <v>0.9558193227057298</v>
+        <v>1.000389218445742</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026638264427715</v>
+        <v>1.035559596955651</v>
       </c>
       <c r="J17">
-        <v>0.9844298487259543</v>
+        <v>1.006420381243633</v>
       </c>
       <c r="K17">
-        <v>0.9963548740721484</v>
+        <v>1.014444534535356</v>
       </c>
       <c r="L17">
-        <v>0.9798117333176097</v>
+        <v>1.009105856588402</v>
       </c>
       <c r="M17">
-        <v>0.97064903535878</v>
-      </c>
-      <c r="N17">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.014390426692805</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1029,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9577485823540096</v>
+        <v>0.9802869468890172</v>
       </c>
       <c r="D18">
-        <v>0.9841061147596961</v>
+        <v>1.002102720186482</v>
       </c>
       <c r="E18">
-        <v>0.9674290165818668</v>
+        <v>0.9968904387967373</v>
       </c>
       <c r="F18">
-        <v>0.9585793597436035</v>
+        <v>1.002369188998744</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027670295003321</v>
+        <v>1.036221973472665</v>
       </c>
       <c r="J18">
-        <v>0.9865086324201147</v>
+        <v>1.008115947671383</v>
       </c>
       <c r="K18">
-        <v>0.9982049555682834</v>
+        <v>1.015885256383992</v>
       </c>
       <c r="L18">
-        <v>0.9818346939339969</v>
+        <v>1.01076306406255</v>
       </c>
       <c r="M18">
-        <v>0.9731535388255569</v>
-      </c>
-      <c r="N18">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.016147152085866</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1067,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9586328621923279</v>
+        <v>0.9810296235061691</v>
       </c>
       <c r="D19">
-        <v>0.9848096558509543</v>
+        <v>1.002664390802018</v>
       </c>
       <c r="E19">
-        <v>0.9681943150797346</v>
+        <v>0.9975274387741431</v>
       </c>
       <c r="F19">
-        <v>0.9595119795539402</v>
+        <v>1.003039839214646</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028018649445797</v>
+        <v>1.036446022605073</v>
       </c>
       <c r="J19">
-        <v>0.9872108163166146</v>
+        <v>1.008690029669915</v>
       </c>
       <c r="K19">
-        <v>0.99882986644453</v>
+        <v>1.016372993902439</v>
       </c>
       <c r="L19">
-        <v>0.9825179770851651</v>
+        <v>1.011324215358219</v>
       </c>
       <c r="M19">
-        <v>0.9739996812251048</v>
-      </c>
-      <c r="N19">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.016742043648853</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1105,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9546456785756553</v>
+        <v>0.97768756396902</v>
       </c>
       <c r="D20">
-        <v>0.9816381122900147</v>
+        <v>1.000137401503456</v>
       </c>
       <c r="E20">
-        <v>0.9647440180560555</v>
+        <v>0.9946617725877419</v>
       </c>
       <c r="F20">
-        <v>0.955307531926992</v>
+        <v>1.000022866625106</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026446719943358</v>
+        <v>1.035436890760284</v>
       </c>
       <c r="J20">
-        <v>0.9840442684251116</v>
+        <v>1.006106539508772</v>
       </c>
       <c r="K20">
-        <v>0.9960117048625645</v>
+        <v>1.014177835301706</v>
       </c>
       <c r="L20">
-        <v>0.9794364861446003</v>
+        <v>1.008799142280949</v>
       </c>
       <c r="M20">
-        <v>0.9701845648726937</v>
-      </c>
-      <c r="N20">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.014065313962817</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1143,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9410662645188409</v>
+        <v>0.9664375765397512</v>
       </c>
       <c r="D21">
-        <v>0.9708508049420043</v>
+        <v>0.9916420010816889</v>
       </c>
       <c r="E21">
-        <v>0.9530017016507374</v>
+        <v>0.9850316350926374</v>
       </c>
       <c r="F21">
-        <v>0.9410008144823225</v>
+        <v>0.9898855917106042</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.021071822644145</v>
+        <v>1.032024296493236</v>
       </c>
       <c r="J21">
-        <v>0.973252746710686</v>
+        <v>0.9974087802570927</v>
       </c>
       <c r="K21">
-        <v>0.9864062924120102</v>
+        <v>1.006783467469342</v>
       </c>
       <c r="L21">
-        <v>0.9689317448706718</v>
+        <v>1.000302247174284</v>
       </c>
       <c r="M21">
-        <v>0.9571933307729283</v>
-      </c>
-      <c r="N21">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.005061152163217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1181,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9319911968421142</v>
+        <v>0.959039585553415</v>
       </c>
       <c r="D22">
-        <v>0.9636550321117614</v>
+        <v>0.9860655190324359</v>
       </c>
       <c r="E22">
-        <v>0.9451628258998447</v>
+        <v>0.9787128102760221</v>
       </c>
       <c r="F22">
-        <v>0.9314495185323004</v>
+        <v>0.9832350070206606</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.017464163696741</v>
+        <v>1.029768827048968</v>
       </c>
       <c r="J22">
-        <v>0.9660363999162853</v>
+        <v>0.9916891196970656</v>
       </c>
       <c r="K22">
-        <v>0.9799825897647247</v>
+        <v>1.001918168728036</v>
       </c>
       <c r="L22">
-        <v>0.9619049357441201</v>
+        <v>0.9947181036090403</v>
       </c>
       <c r="M22">
-        <v>0.9485133247448472</v>
-      </c>
-      <c r="N22">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9991460617735035</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1219,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9368576313643919</v>
+        <v>0.9629942659209586</v>
       </c>
       <c r="D23">
-        <v>0.9675123101511096</v>
+        <v>0.9890454353531182</v>
       </c>
       <c r="E23">
-        <v>0.9493654488874531</v>
+        <v>0.9820892108974228</v>
       </c>
       <c r="F23">
-        <v>0.9365704157794242</v>
+        <v>0.9867885889236866</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.019400131821023</v>
+        <v>1.030975520129017</v>
       </c>
       <c r="J23">
-        <v>0.9699064473862832</v>
+        <v>0.9947465648431706</v>
       </c>
       <c r="K23">
-        <v>0.9834275702802023</v>
+        <v>1.004519148319625</v>
       </c>
       <c r="L23">
-        <v>0.9656735311529164</v>
+        <v>0.9977027752778769</v>
       </c>
       <c r="M23">
-        <v>0.9531677052816674</v>
-      </c>
-      <c r="N23">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.002307390376699</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1257,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9548651799236555</v>
+        <v>0.9778711037882398</v>
       </c>
       <c r="D24">
-        <v>0.981812664224245</v>
+        <v>1.000276142692593</v>
       </c>
       <c r="E24">
-        <v>0.9649339353606614</v>
+        <v>0.9948190931354105</v>
       </c>
       <c r="F24">
-        <v>0.9555389478214923</v>
+        <v>1.000188488670104</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026533337131491</v>
+        <v>1.035492369991893</v>
       </c>
       <c r="J24">
-        <v>0.9842186201838774</v>
+        <v>1.006248426886717</v>
       </c>
       <c r="K24">
-        <v>0.9961668795154217</v>
+        <v>1.014298410690567</v>
       </c>
       <c r="L24">
-        <v>0.9796061662730625</v>
+        <v>1.008937806304958</v>
       </c>
       <c r="M24">
-        <v>0.9703945864066739</v>
-      </c>
-      <c r="N24">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.014212295044444</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9738127672049856</v>
+        <v>0.99390511469418</v>
       </c>
       <c r="D25">
-        <v>0.9968996530832236</v>
+        <v>1.01241181061903</v>
       </c>
       <c r="E25">
-        <v>0.9813387430119814</v>
+        <v>1.008587671126269</v>
       </c>
       <c r="F25">
-        <v>0.9755365557963407</v>
+        <v>1.014686003066323</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033971994755673</v>
+        <v>1.040309993806139</v>
       </c>
       <c r="J25">
-        <v>0.9992547589538366</v>
+        <v>1.018639351534628</v>
       </c>
       <c r="K25">
-        <v>1.009546289360531</v>
+        <v>1.024820456918563</v>
       </c>
       <c r="L25">
-        <v>0.9942338276579413</v>
+        <v>1.021054121395939</v>
       </c>
       <c r="M25">
-        <v>0.988526890040385</v>
-      </c>
-      <c r="N25">
-        <v>1.005704707400593</v>
+        <v>1.027060536561205</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_30/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.005868436103729</v>
+        <v>0.9794720714831356</v>
       </c>
       <c r="D2">
-        <v>1.02148290977885</v>
+        <v>1.000801697957585</v>
       </c>
       <c r="E2">
-        <v>1.018892171457462</v>
+        <v>0.9879831742855447</v>
       </c>
       <c r="F2">
-        <v>1.025539616726788</v>
+        <v>0.9886511130929797</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043859990703646</v>
+        <v>1.034111177119151</v>
       </c>
       <c r="J2">
-        <v>1.027875028893313</v>
+        <v>1.002284598065238</v>
       </c>
       <c r="K2">
-        <v>1.032650851726726</v>
+        <v>1.012249875142458</v>
       </c>
       <c r="L2">
-        <v>1.030094436051907</v>
+        <v>0.9996125006998964</v>
       </c>
       <c r="M2">
-        <v>1.036654251060444</v>
+        <v>1.000270853440995</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.014143372030928</v>
+        <v>0.9880034964380632</v>
       </c>
       <c r="D3">
-        <v>1.027763268246126</v>
+        <v>1.007263859935948</v>
       </c>
       <c r="E3">
-        <v>1.026034966323856</v>
+        <v>0.9951285912753648</v>
       </c>
       <c r="F3">
-        <v>1.033065188697834</v>
+        <v>0.99727134514857</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046287981890603</v>
+        <v>1.036654942646632</v>
       </c>
       <c r="J3">
-        <v>1.034255761991825</v>
+        <v>1.008826627968925</v>
       </c>
       <c r="K3">
-        <v>1.038052821499722</v>
+        <v>1.017804634393346</v>
       </c>
       <c r="L3">
-        <v>1.036345219125847</v>
+        <v>1.005824184503357</v>
       </c>
       <c r="M3">
-        <v>1.043291777059268</v>
+        <v>1.007939259094481</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019326212007096</v>
+        <v>0.9933331840386763</v>
       </c>
       <c r="D4">
-        <v>1.031698591475281</v>
+        <v>1.011303199121995</v>
       </c>
       <c r="E4">
-        <v>1.030514944833464</v>
+        <v>0.9995990366777912</v>
       </c>
       <c r="F4">
-        <v>1.037786264937222</v>
+        <v>1.002661594386634</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047795451855351</v>
+        <v>1.038230047806775</v>
       </c>
       <c r="J4">
-        <v>1.038248146067285</v>
+        <v>1.012908978884927</v>
       </c>
       <c r="K4">
-        <v>1.041428922247097</v>
+        <v>1.021267092090802</v>
       </c>
       <c r="L4">
-        <v>1.040258519193358</v>
+        <v>1.009702303383662</v>
       </c>
       <c r="M4">
-        <v>1.047449068477464</v>
+        <v>1.012728002103092</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.021466501191021</v>
+        <v>0.9955310946633691</v>
       </c>
       <c r="D5">
-        <v>1.033323993394546</v>
+        <v>1.012969388536555</v>
       </c>
       <c r="E5">
-        <v>1.032366368542113</v>
+        <v>1.00144406186602</v>
       </c>
       <c r="F5">
-        <v>1.039737574552781</v>
+        <v>1.004885661753927</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048414716503024</v>
+        <v>1.038876161164899</v>
       </c>
       <c r="J5">
-        <v>1.039895774106377</v>
+        <v>1.014591325632215</v>
       </c>
       <c r="K5">
-        <v>1.042821251350177</v>
+        <v>1.02269302482105</v>
       </c>
       <c r="L5">
-        <v>1.041874031318007</v>
+        <v>1.011300925995379</v>
       </c>
       <c r="M5">
-        <v>1.049165752605813</v>
+        <v>1.014702346839527</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021823671528144</v>
+        <v>0.9958977109333875</v>
       </c>
       <c r="D6">
-        <v>1.033595252518269</v>
+        <v>1.013247332089925</v>
       </c>
       <c r="E6">
-        <v>1.032675411667418</v>
+        <v>1.001751898270273</v>
       </c>
       <c r="F6">
-        <v>1.040063305539375</v>
+        <v>1.00525670950845</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048517865471505</v>
+        <v>1.038983729373591</v>
       </c>
       <c r="J6">
-        <v>1.04017066517919</v>
+        <v>1.014871873256344</v>
       </c>
       <c r="K6">
-        <v>1.043053490632062</v>
+        <v>1.022930755685882</v>
       </c>
       <c r="L6">
-        <v>1.042143594497474</v>
+        <v>1.011567537229272</v>
       </c>
       <c r="M6">
-        <v>1.049452223433416</v>
+        <v>1.015031641818234</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.049999999999999</v>
       </c>
       <c r="C7">
-        <v>1.01935495909734</v>
+        <v>0.9933627166690444</v>
       </c>
       <c r="D7">
-        <v>1.031720421956573</v>
+        <v>1.011325585773449</v>
       </c>
       <c r="E7">
-        <v>1.030539806704428</v>
+        <v>0.9996238220861426</v>
       </c>
       <c r="F7">
-        <v>1.037812467139346</v>
+        <v>1.002691473842412</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047803782436835</v>
+        <v>1.038238743178635</v>
       </c>
       <c r="J7">
-        <v>1.03827028030261</v>
+        <v>1.012931588808692</v>
       </c>
       <c r="K7">
-        <v>1.04144763065427</v>
+        <v>1.021286259766879</v>
       </c>
       <c r="L7">
-        <v>1.040280219933271</v>
+        <v>1.009723786372799</v>
       </c>
       <c r="M7">
-        <v>1.04747212647072</v>
+        <v>1.012754532739683</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.008702103256576</v>
+        <v>0.9823966802344802</v>
       </c>
       <c r="D8">
-        <v>1.023633097772676</v>
+        <v>1.00301635626621</v>
       </c>
       <c r="E8">
-        <v>1.021336760381499</v>
+        <v>0.9904311689570977</v>
       </c>
       <c r="F8">
-        <v>1.028114996568269</v>
+        <v>0.9916050642866162</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044694185489086</v>
+        <v>1.034986107424489</v>
       </c>
       <c r="J8">
-        <v>1.030060852605907</v>
+        <v>1.004528139135591</v>
       </c>
       <c r="K8">
-        <v>1.034502183552172</v>
+        <v>1.014155623527913</v>
       </c>
       <c r="L8">
-        <v>1.032235264507694</v>
+        <v>1.001742335430605</v>
       </c>
       <c r="M8">
-        <v>1.038927137284158</v>
+        <v>1.002899964050086</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9884897305013498</v>
+        <v>0.9614608317743317</v>
       </c>
       <c r="D9">
-        <v>1.008309898249797</v>
+        <v>0.9871804274063487</v>
       </c>
       <c r="E9">
-        <v>1.003931934096342</v>
+        <v>0.9729422955546582</v>
       </c>
       <c r="F9">
-        <v>1.009783222855635</v>
+        <v>0.9704832130600658</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038689734472693</v>
+        <v>1.028665387082361</v>
       </c>
       <c r="J9">
-        <v>1.014455597628721</v>
+        <v>0.9884519639527696</v>
       </c>
       <c r="K9">
-        <v>1.021269576689053</v>
+        <v>1.000484974814285</v>
       </c>
       <c r="L9">
-        <v>1.016961538906766</v>
+        <v>0.9864901695763209</v>
       </c>
       <c r="M9">
-        <v>1.022719543459946</v>
+        <v>0.984074049076464</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9738432535395275</v>
+        <v>0.9461724415642385</v>
       </c>
       <c r="D10">
-        <v>0.9972324241589089</v>
+        <v>0.9756489405648024</v>
       </c>
       <c r="E10">
-        <v>0.9913681579487218</v>
+        <v>0.9602246137542448</v>
       </c>
       <c r="F10">
-        <v>0.9965555827001507</v>
+        <v>0.9550924423132422</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034273339122702</v>
+        <v>1.023980267206535</v>
       </c>
       <c r="J10">
-        <v>1.003134513791421</v>
+        <v>0.9766973672618767</v>
       </c>
       <c r="K10">
-        <v>1.011651828483933</v>
+        <v>0.990472234518457</v>
       </c>
       <c r="L10">
-        <v>1.005895031767584</v>
+        <v>0.9753511837882599</v>
       </c>
       <c r="M10">
-        <v>1.010987306903918</v>
+        <v>0.9703227851977071</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9671685532126676</v>
+        <v>0.9391684986138372</v>
       </c>
       <c r="D11">
-        <v>0.9921934524790798</v>
+        <v>0.9703775856061411</v>
       </c>
       <c r="E11">
-        <v>0.9856565898746747</v>
+        <v>0.9544142385565529</v>
       </c>
       <c r="F11">
-        <v>0.9905433994826071</v>
+        <v>0.9480504813819247</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032246700933456</v>
+        <v>1.021819136629244</v>
       </c>
       <c r="J11">
-        <v>0.9979739455397707</v>
+        <v>0.9713107724331626</v>
       </c>
       <c r="K11">
-        <v>1.007264105911204</v>
+        <v>0.9858806267431349</v>
       </c>
       <c r="L11">
-        <v>1.000854167777313</v>
+        <v>0.9702502714530153</v>
       </c>
       <c r="M11">
-        <v>1.005645884437477</v>
+        <v>0.9640234123669073</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9646337462842508</v>
+        <v>0.9365021862194755</v>
       </c>
       <c r="D12">
-        <v>0.9902815264897642</v>
+        <v>0.9683729408294427</v>
       </c>
       <c r="E12">
-        <v>0.9834898997471202</v>
+        <v>0.952205002263853</v>
       </c>
       <c r="F12">
-        <v>0.988262841761072</v>
+        <v>0.9453711240367855</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031475106748215</v>
+        <v>1.020994374128634</v>
       </c>
       <c r="J12">
-        <v>0.9960141298075359</v>
+        <v>0.9692601317922657</v>
       </c>
       <c r="K12">
-        <v>1.00559731604599</v>
+        <v>0.9841322288455506</v>
       </c>
       <c r="L12">
-        <v>0.9989403933609813</v>
+        <v>0.9683089720430317</v>
       </c>
       <c r="M12">
-        <v>1.003618415591442</v>
+        <v>0.9616255043402551</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9651800822080778</v>
+        <v>0.9370771755449173</v>
       </c>
       <c r="D13">
-        <v>0.9906935291668404</v>
+        <v>0.9688051408607744</v>
       </c>
       <c r="E13">
-        <v>0.9839567835623877</v>
+        <v>0.9526812959749116</v>
       </c>
       <c r="F13">
-        <v>0.9887542544386909</v>
+        <v>0.9459488604712513</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031641496554156</v>
+        <v>1.021172323165381</v>
       </c>
       <c r="J13">
-        <v>0.9964365336727794</v>
+        <v>0.9697023496021894</v>
       </c>
       <c r="K13">
-        <v>1.005956583668665</v>
+        <v>0.9845092852004644</v>
       </c>
       <c r="L13">
-        <v>0.9993528470355365</v>
+        <v>0.9687275834186633</v>
       </c>
       <c r="M13">
-        <v>1.004055353698083</v>
+        <v>0.9621426018458951</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9669601931625871</v>
+        <v>0.9389494662015073</v>
       </c>
       <c r="D14">
-        <v>0.992036256863153</v>
+        <v>0.9702128632279147</v>
       </c>
       <c r="E14">
-        <v>0.9854784396191083</v>
+        <v>0.9542326974394334</v>
       </c>
       <c r="F14">
-        <v>0.9903558833423672</v>
+        <v>0.9478303478682099</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032183314802099</v>
+        <v>1.021751424344548</v>
       </c>
       <c r="J14">
-        <v>0.9978128488371834</v>
+        <v>0.9711423156484206</v>
       </c>
       <c r="K14">
-        <v>1.007127105148954</v>
+        <v>0.9857370063679671</v>
       </c>
       <c r="L14">
-        <v>1.000696843688499</v>
+        <v>0.9700907847633869</v>
       </c>
       <c r="M14">
-        <v>1.005479205531307</v>
+        <v>0.963826424345913</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9680494399398205</v>
+        <v>0.9400942361828398</v>
       </c>
       <c r="D15">
-        <v>0.9928581011151735</v>
+        <v>0.9710738697432744</v>
       </c>
       <c r="E15">
-        <v>0.9864098553540412</v>
+        <v>0.9551816311243624</v>
       </c>
       <c r="F15">
-        <v>0.9913362732597123</v>
+        <v>0.9489809312242136</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032514601139103</v>
+        <v>1.022105239772763</v>
       </c>
       <c r="J15">
-        <v>0.9986550166170752</v>
+        <v>0.9720227527589426</v>
       </c>
       <c r="K15">
-        <v>1.007843287296842</v>
+        <v>0.9864876204695304</v>
       </c>
       <c r="L15">
-        <v>1.001519313118232</v>
+        <v>0.9709243637573917</v>
       </c>
       <c r="M15">
-        <v>1.006350597537278</v>
+        <v>0.9648559878483071</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.974278768163004</v>
+        <v>0.9466286060436034</v>
       </c>
       <c r="D16">
-        <v>0.9975614251186536</v>
+        <v>0.9759925279886087</v>
       </c>
       <c r="E16">
-        <v>0.9917411387046633</v>
+        <v>0.9606033935784494</v>
       </c>
       <c r="F16">
-        <v>0.9969482183112489</v>
+        <v>0.9555512732707733</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034405297853669</v>
+        <v>1.024120730627081</v>
       </c>
       <c r="J16">
-        <v>1.003471220575669</v>
+        <v>0.9770481784972266</v>
       </c>
       <c r="K16">
-        <v>1.011938041148495</v>
+        <v>0.9907712109826705</v>
       </c>
       <c r="L16">
-        <v>1.006224006366714</v>
+        <v>0.9756834668012594</v>
       </c>
       <c r="M16">
-        <v>1.011335952617715</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9707330791938346</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9780935382901238</v>
+        <v>0.9506200357702933</v>
       </c>
       <c r="D17">
-        <v>1.000444290865276</v>
+        <v>0.9790002346916764</v>
       </c>
       <c r="E17">
-        <v>0.9950097609772844</v>
+        <v>0.9639195204794045</v>
       </c>
       <c r="F17">
-        <v>1.000389218445742</v>
+        <v>0.9595670400508676</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035559596955651</v>
+        <v>1.025348144776274</v>
       </c>
       <c r="J17">
-        <v>1.006420381243633</v>
+        <v>0.9801176156544821</v>
       </c>
       <c r="K17">
-        <v>1.014444534535356</v>
+        <v>0.9933867647115825</v>
       </c>
       <c r="L17">
-        <v>1.009105856588402</v>
+        <v>0.9785911960570561</v>
       </c>
       <c r="M17">
-        <v>1.014390426692805</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9743231986493892</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9802869468890172</v>
+        <v>0.952911656801287</v>
       </c>
       <c r="D18">
-        <v>1.002102720186482</v>
+        <v>0.9807281087232178</v>
       </c>
       <c r="E18">
-        <v>0.9968904387967373</v>
+        <v>0.9658248836722908</v>
       </c>
       <c r="F18">
-        <v>1.002369188998744</v>
+        <v>0.9618734556986949</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036221973472665</v>
+        <v>1.026051456748343</v>
       </c>
       <c r="J18">
-        <v>1.008115947671383</v>
+        <v>0.9818797283594013</v>
       </c>
       <c r="K18">
-        <v>1.015885256383992</v>
+        <v>0.994888004002603</v>
       </c>
       <c r="L18">
-        <v>1.01076306406255</v>
+        <v>0.9802608050465274</v>
       </c>
       <c r="M18">
-        <v>1.016147152085866</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9763844395951699</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9810296235061691</v>
+        <v>0.9536870420294234</v>
       </c>
       <c r="D19">
-        <v>1.002664390802018</v>
+        <v>0.9813129133540991</v>
       </c>
       <c r="E19">
-        <v>0.9975274387741431</v>
+        <v>0.9664698147047026</v>
       </c>
       <c r="F19">
-        <v>1.003039839214646</v>
+        <v>0.962653983680222</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036446022605073</v>
+        <v>1.02628918657614</v>
       </c>
       <c r="J19">
-        <v>1.008690029669915</v>
+        <v>0.982475918370905</v>
       </c>
       <c r="K19">
-        <v>1.016372993902439</v>
+        <v>0.9953958763763994</v>
       </c>
       <c r="L19">
-        <v>1.011324215358219</v>
+        <v>0.9808257522634616</v>
       </c>
       <c r="M19">
-        <v>1.016742043648853</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9770818752550253</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.97768756396902</v>
+        <v>0.9501956168739754</v>
       </c>
       <c r="D20">
-        <v>1.000137401503456</v>
+        <v>0.978680306582874</v>
       </c>
       <c r="E20">
-        <v>0.9946617725877419</v>
+        <v>0.9635667545233714</v>
       </c>
       <c r="F20">
-        <v>1.000022866625106</v>
+        <v>0.9591399471973903</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035436890760284</v>
+        <v>1.025217774204714</v>
       </c>
       <c r="J20">
-        <v>1.006106539508772</v>
+        <v>0.9797912498806037</v>
       </c>
       <c r="K20">
-        <v>1.014177835301706</v>
+        <v>0.9931086906181624</v>
       </c>
       <c r="L20">
-        <v>1.008799142280949</v>
+        <v>0.9782819896341461</v>
       </c>
       <c r="M20">
-        <v>1.014065313962817</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9739414485292304</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9664375765397512</v>
+        <v>0.9383999731542383</v>
       </c>
       <c r="D21">
-        <v>0.9916420010816889</v>
+        <v>0.9697996543217716</v>
       </c>
       <c r="E21">
-        <v>0.9850316350926374</v>
+        <v>0.9537773044119344</v>
       </c>
       <c r="F21">
-        <v>0.9898855917106042</v>
+        <v>0.9472781157236407</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032024296493236</v>
+        <v>1.021581520303151</v>
       </c>
       <c r="J21">
-        <v>0.9974087802570927</v>
+        <v>0.9707197033883633</v>
       </c>
       <c r="K21">
-        <v>1.006783467469342</v>
+        <v>0.9853766957221155</v>
       </c>
       <c r="L21">
-        <v>1.000302247174284</v>
+        <v>0.96969068557712</v>
       </c>
       <c r="M21">
-        <v>1.005061152163217</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9633322381211205</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.959039585553415</v>
+        <v>0.9306045765459432</v>
       </c>
       <c r="D22">
-        <v>0.9860655190324359</v>
+        <v>0.9639432066709982</v>
       </c>
       <c r="E22">
-        <v>0.9787128102760221</v>
+        <v>0.9473237881913508</v>
       </c>
       <c r="F22">
-        <v>0.9832350070206606</v>
+        <v>0.939447418345791</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029768827048968</v>
+        <v>1.019166510489584</v>
       </c>
       <c r="J22">
-        <v>0.9916891196970656</v>
+        <v>0.9647245187280963</v>
       </c>
       <c r="K22">
-        <v>1.001918168728036</v>
+        <v>0.9802644712972273</v>
       </c>
       <c r="L22">
-        <v>0.9947181036090403</v>
+        <v>0.9640163388217382</v>
       </c>
       <c r="M22">
-        <v>0.9991460617735035</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.956322076109805</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9629942659209586</v>
+        <v>0.9347756856919479</v>
       </c>
       <c r="D23">
-        <v>0.9890454353531182</v>
+        <v>0.9670755273703565</v>
       </c>
       <c r="E23">
-        <v>0.9820892108974228</v>
+        <v>0.950775274603026</v>
       </c>
       <c r="F23">
-        <v>0.9867885889236866</v>
+        <v>0.9436365922100864</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030975520129017</v>
+        <v>1.020459767214599</v>
       </c>
       <c r="J23">
-        <v>0.9947465648431706</v>
+        <v>0.9679323123396191</v>
       </c>
       <c r="K23">
-        <v>1.004519148319625</v>
+        <v>0.9830000133109088</v>
       </c>
       <c r="L23">
-        <v>0.9977027752778769</v>
+        <v>0.967052123750585</v>
       </c>
       <c r="M23">
-        <v>1.002307390376699</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9600728713742144</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,72 +1323,78 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9778711037882398</v>
+        <v>0.9503875058208396</v>
       </c>
       <c r="D24">
-        <v>1.000276142692593</v>
+        <v>0.9788249497698169</v>
       </c>
       <c r="E24">
-        <v>0.9948190931354105</v>
+        <v>0.9637262431175629</v>
       </c>
       <c r="F24">
-        <v>1.000188488670104</v>
+        <v>0.9593330425480315</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035492369991893</v>
+        <v>1.025276721891186</v>
       </c>
       <c r="J24">
-        <v>1.006248426886717</v>
+        <v>0.9799388074051414</v>
       </c>
       <c r="K24">
-        <v>1.014298410690567</v>
+        <v>0.9932344153149353</v>
       </c>
       <c r="L24">
-        <v>1.008937806304958</v>
+        <v>0.978421787995107</v>
       </c>
       <c r="M24">
-        <v>1.014212295044444</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9741140459281851</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C25">
-        <v>0.99390511469418</v>
+        <v>0.9670875860663338</v>
       </c>
       <c r="D25">
-        <v>1.01241181061903</v>
+        <v>0.9914320664185173</v>
       </c>
       <c r="E25">
-        <v>1.008587671126269</v>
+        <v>0.9776345009919178</v>
       </c>
       <c r="F25">
-        <v>1.014686003066323</v>
+        <v>0.9761545854436566</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040309993806139</v>
+        <v>1.030376357157829</v>
       </c>
       <c r="J25">
-        <v>1.018639351534628</v>
+        <v>0.9927757215244802</v>
       </c>
       <c r="K25">
-        <v>1.024820456918563</v>
+        <v>1.004164860763135</v>
       </c>
       <c r="L25">
-        <v>1.021054121395939</v>
+        <v>0.9905902271979447</v>
       </c>
       <c r="M25">
-        <v>1.027060536561205</v>
+        <v>0.9891347046819747</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_30/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9794720714831356</v>
+        <v>1.033095748054874</v>
       </c>
       <c r="D2">
-        <v>1.000801697957585</v>
+        <v>1.035837824644372</v>
       </c>
       <c r="E2">
-        <v>0.9879831742855447</v>
+        <v>1.032367888000352</v>
       </c>
       <c r="F2">
-        <v>0.9886511130929797</v>
+        <v>1.041264067148589</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034111177119151</v>
+        <v>1.033257053570356</v>
       </c>
       <c r="J2">
-        <v>1.002284598065238</v>
+        <v>1.038222354002993</v>
       </c>
       <c r="K2">
-        <v>1.012249875142458</v>
+        <v>1.038633284321467</v>
       </c>
       <c r="L2">
-        <v>0.9996125006998964</v>
+        <v>1.035173321254598</v>
       </c>
       <c r="M2">
-        <v>1.000270853440995</v>
+        <v>1.044044074934244</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9880034964380632</v>
+        <v>1.034725863497439</v>
       </c>
       <c r="D3">
-        <v>1.007263859935948</v>
+        <v>1.037074053980286</v>
       </c>
       <c r="E3">
-        <v>0.9951285912753648</v>
+        <v>1.033776928272614</v>
       </c>
       <c r="F3">
-        <v>0.99727134514857</v>
+        <v>1.042974392707843</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036654942646632</v>
+        <v>1.033644668577635</v>
       </c>
       <c r="J3">
-        <v>1.008826627968925</v>
+        <v>1.039491589352489</v>
       </c>
       <c r="K3">
-        <v>1.017804634393346</v>
+        <v>1.039677857957511</v>
       </c>
       <c r="L3">
-        <v>1.005824184503357</v>
+        <v>1.036389513817422</v>
       </c>
       <c r="M3">
-        <v>1.007939259094481</v>
+        <v>1.045562631427252</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9933331840386763</v>
+        <v>1.035778243914784</v>
       </c>
       <c r="D4">
-        <v>1.011303199121995</v>
+        <v>1.037871668507611</v>
       </c>
       <c r="E4">
-        <v>0.9995990366777912</v>
+        <v>1.034686703648658</v>
       </c>
       <c r="F4">
-        <v>1.002661594386634</v>
+        <v>1.044078879040008</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038230047806775</v>
+        <v>1.033893043715278</v>
       </c>
       <c r="J4">
-        <v>1.012908978884927</v>
+        <v>1.040310163712611</v>
       </c>
       <c r="K4">
-        <v>1.021267092090802</v>
+        <v>1.040350909144308</v>
       </c>
       <c r="L4">
-        <v>1.009702303383662</v>
+        <v>1.037173994081587</v>
       </c>
       <c r="M4">
-        <v>1.012728002103092</v>
+        <v>1.046542583310784</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9955310946633691</v>
+        <v>1.036220098941274</v>
       </c>
       <c r="D5">
-        <v>1.012969388536555</v>
+        <v>1.038206441095392</v>
       </c>
       <c r="E5">
-        <v>1.00144406186602</v>
+        <v>1.035068711459252</v>
       </c>
       <c r="F5">
-        <v>1.004885661753927</v>
+        <v>1.044542688855023</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038876161164899</v>
+        <v>1.03399688034239</v>
       </c>
       <c r="J5">
-        <v>1.014591325632215</v>
+        <v>1.04065365384867</v>
       </c>
       <c r="K5">
-        <v>1.02269302482105</v>
+        <v>1.040633183284157</v>
       </c>
       <c r="L5">
-        <v>1.011300925995379</v>
+        <v>1.037503205066693</v>
       </c>
       <c r="M5">
-        <v>1.014702346839527</v>
+        <v>1.046953930698858</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9958977109333875</v>
+        <v>1.036294255519627</v>
       </c>
       <c r="D6">
-        <v>1.013247332089925</v>
+        <v>1.038262619186853</v>
       </c>
       <c r="E6">
-        <v>1.001751898270273</v>
+        <v>1.035132825444455</v>
       </c>
       <c r="F6">
-        <v>1.00525670950845</v>
+        <v>1.044620534653301</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038983729373591</v>
+        <v>1.034014281036542</v>
       </c>
       <c r="J6">
-        <v>1.014871873256344</v>
+        <v>1.040711290177688</v>
       </c>
       <c r="K6">
-        <v>1.022930755685882</v>
+        <v>1.040680538898501</v>
       </c>
       <c r="L6">
-        <v>1.011567537229272</v>
+        <v>1.03755844701284</v>
       </c>
       <c r="M6">
-        <v>1.015031641818234</v>
+        <v>1.047022961450647</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9933627166690444</v>
+        <v>1.035784150209496</v>
       </c>
       <c r="D7">
-        <v>1.011325585773449</v>
+        <v>1.037876143883805</v>
       </c>
       <c r="E7">
-        <v>0.9996238220861426</v>
+        <v>1.034691809857147</v>
       </c>
       <c r="F7">
-        <v>1.002691473842412</v>
+        <v>1.044085078500674</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038238743178635</v>
+        <v>1.033894433460863</v>
       </c>
       <c r="J7">
-        <v>1.012931588808692</v>
+        <v>1.040314755940801</v>
       </c>
       <c r="K7">
-        <v>1.021286259766879</v>
+        <v>1.040354683553152</v>
       </c>
       <c r="L7">
-        <v>1.009723786372799</v>
+        <v>1.037178395299684</v>
       </c>
       <c r="M7">
-        <v>1.012754532739683</v>
+        <v>1.046548082192401</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9823966802344802</v>
+        <v>1.03364716016147</v>
       </c>
       <c r="D8">
-        <v>1.00301635626621</v>
+        <v>1.036256097028968</v>
       </c>
       <c r="E8">
-        <v>0.9904311689570977</v>
+        <v>1.032844492881393</v>
       </c>
       <c r="F8">
-        <v>0.9916050642866162</v>
+        <v>1.041842544563812</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034986107424489</v>
+        <v>1.033388556616968</v>
       </c>
       <c r="J8">
-        <v>1.004528139135591</v>
+        <v>1.038651863868987</v>
       </c>
       <c r="K8">
-        <v>1.014155623527913</v>
+        <v>1.038986899184738</v>
       </c>
       <c r="L8">
-        <v>1.001742335430605</v>
+        <v>1.035584857458017</v>
       </c>
       <c r="M8">
-        <v>1.002899964050086</v>
+        <v>1.04455783498056</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9614608317743317</v>
+        <v>1.029862485496266</v>
       </c>
       <c r="D9">
-        <v>0.9871804274063487</v>
+        <v>1.033383321459145</v>
       </c>
       <c r="E9">
-        <v>0.9729422955546582</v>
+        <v>1.029573790681577</v>
       </c>
       <c r="F9">
-        <v>0.9704832130600658</v>
+        <v>1.037873433578812</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028665387082361</v>
+        <v>1.032478317804452</v>
       </c>
       <c r="J9">
-        <v>0.9884519639527696</v>
+        <v>1.03570049581953</v>
       </c>
       <c r="K9">
-        <v>1.000484974814285</v>
+        <v>1.03655445887289</v>
       </c>
       <c r="L9">
-        <v>0.9864901695763209</v>
+        <v>1.032757475077431</v>
       </c>
       <c r="M9">
-        <v>0.984074049076464</v>
+        <v>1.041029912062323</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9461724415642385</v>
+        <v>1.027325815932185</v>
       </c>
       <c r="D10">
-        <v>0.9756489405648024</v>
+        <v>1.031455489934723</v>
       </c>
       <c r="E10">
-        <v>0.9602246137542448</v>
+        <v>1.027382312206215</v>
       </c>
       <c r="F10">
-        <v>0.9550924423132422</v>
+        <v>1.035214815411138</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023980267206535</v>
+        <v>1.031858628214962</v>
       </c>
       <c r="J10">
-        <v>0.9766973672618767</v>
+        <v>1.033718117961168</v>
       </c>
       <c r="K10">
-        <v>0.990472234518457</v>
+        <v>1.034917404475413</v>
       </c>
       <c r="L10">
-        <v>0.9753511837882599</v>
+        <v>1.030858985989489</v>
       </c>
       <c r="M10">
-        <v>0.9703227851977071</v>
+        <v>1.038663221705197</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9391684986138372</v>
+        <v>1.026224024956077</v>
       </c>
       <c r="D11">
-        <v>0.9703775856061411</v>
+        <v>1.030617602143004</v>
       </c>
       <c r="E11">
-        <v>0.9544142385565529</v>
+        <v>1.026430633345173</v>
       </c>
       <c r="F11">
-        <v>0.9480504813819247</v>
+        <v>1.034060451929174</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021819136629244</v>
+        <v>1.031587197210532</v>
       </c>
       <c r="J11">
-        <v>0.9713107724331626</v>
+        <v>1.032856084945113</v>
       </c>
       <c r="K11">
-        <v>0.9858806267431349</v>
+        <v>1.034204774506838</v>
       </c>
       <c r="L11">
-        <v>0.9702502714530153</v>
+        <v>1.030033578471481</v>
       </c>
       <c r="M11">
-        <v>0.9640234123669073</v>
+        <v>1.037634760636037</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9365021862194755</v>
+        <v>1.025814245696935</v>
       </c>
       <c r="D12">
-        <v>0.9683729408294427</v>
+        <v>1.030305893898078</v>
       </c>
       <c r="E12">
-        <v>0.952205002263853</v>
+        <v>1.026076712100225</v>
       </c>
       <c r="F12">
-        <v>0.9453711240367855</v>
+        <v>1.033631179185868</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.020994374128634</v>
+        <v>1.031485905548131</v>
       </c>
       <c r="J12">
-        <v>0.9692601317922657</v>
+        <v>1.032535327662818</v>
       </c>
       <c r="K12">
-        <v>0.9841322288455506</v>
+        <v>1.033939495491647</v>
       </c>
       <c r="L12">
-        <v>0.9683089720430317</v>
+        <v>1.02972647151333</v>
       </c>
       <c r="M12">
-        <v>0.9616255043402551</v>
+        <v>1.037252179239909</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9370771755449173</v>
+        <v>1.025902168736772</v>
       </c>
       <c r="D13">
-        <v>0.9688051408607744</v>
+        <v>1.0303727782319</v>
       </c>
       <c r="E13">
-        <v>0.9526812959749116</v>
+        <v>1.026152648843106</v>
       </c>
       <c r="F13">
-        <v>0.9459488604712513</v>
+        <v>1.033723282102077</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.021172323165381</v>
+        <v>1.031507654294005</v>
       </c>
       <c r="J13">
-        <v>0.9697023496021894</v>
+        <v>1.032604156707189</v>
       </c>
       <c r="K13">
-        <v>0.9845092852004644</v>
+        <v>1.033996424981817</v>
       </c>
       <c r="L13">
-        <v>0.9687275834186633</v>
+        <v>1.029792370423935</v>
       </c>
       <c r="M13">
-        <v>0.9621426018458951</v>
+        <v>1.037334270049358</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9389494662015073</v>
+        <v>1.026190163271231</v>
       </c>
       <c r="D14">
-        <v>0.9702128632279147</v>
+        <v>1.030591846080719</v>
       </c>
       <c r="E14">
-        <v>0.9542326974394334</v>
+        <v>1.026401386848785</v>
       </c>
       <c r="F14">
-        <v>0.9478303478682099</v>
+        <v>1.034024978210796</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021751424344548</v>
+        <v>1.03157883402431</v>
       </c>
       <c r="J14">
-        <v>0.9711423156484206</v>
+        <v>1.03282958253512</v>
       </c>
       <c r="K14">
-        <v>0.9857370063679671</v>
+        <v>1.034182858276301</v>
       </c>
       <c r="L14">
-        <v>0.9700907847633869</v>
+        <v>1.030008203459151</v>
       </c>
       <c r="M14">
-        <v>0.963826424345913</v>
+        <v>1.0376031479492</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9400942361828398</v>
+        <v>1.026367536192252</v>
       </c>
       <c r="D15">
-        <v>0.9710738697432744</v>
+        <v>1.03072675718279</v>
       </c>
       <c r="E15">
-        <v>0.9551816311243624</v>
+        <v>1.026554585833761</v>
       </c>
       <c r="F15">
-        <v>0.9489809312242136</v>
+        <v>1.034210797649698</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.022105239772763</v>
+        <v>1.031622627786949</v>
       </c>
       <c r="J15">
-        <v>0.9720227527589426</v>
+        <v>1.032968400300011</v>
       </c>
       <c r="K15">
-        <v>0.9864876204695304</v>
+        <v>1.034297649304603</v>
       </c>
       <c r="L15">
-        <v>0.9709243637573917</v>
+        <v>1.030141116903538</v>
       </c>
       <c r="M15">
-        <v>0.9648559878483071</v>
+        <v>1.037768737186225</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9466286060436034</v>
+        <v>1.027398865356491</v>
       </c>
       <c r="D16">
-        <v>0.9759925279886087</v>
+        <v>1.031511031112012</v>
       </c>
       <c r="E16">
-        <v>0.9606033935784494</v>
+        <v>1.02744541298648</v>
       </c>
       <c r="F16">
-        <v>0.9555512732707733</v>
+        <v>1.035291358739342</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024120730627081</v>
+        <v>1.031876576501218</v>
       </c>
       <c r="J16">
-        <v>0.9770481784972266</v>
+        <v>1.033775250373485</v>
       </c>
       <c r="K16">
-        <v>0.9907712109826705</v>
+        <v>1.034964619050841</v>
       </c>
       <c r="L16">
-        <v>0.9756834668012594</v>
+        <v>1.03091369409555</v>
       </c>
       <c r="M16">
-        <v>0.9707330791938346</v>
+        <v>1.038731398795248</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9506200357702933</v>
+        <v>1.028044871220771</v>
       </c>
       <c r="D17">
-        <v>0.9790002346916764</v>
+        <v>1.032002141969011</v>
       </c>
       <c r="E17">
-        <v>0.9639195204794045</v>
+        <v>1.028003459824211</v>
       </c>
       <c r="F17">
-        <v>0.9595670400508676</v>
+        <v>1.035968308209439</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025348144776274</v>
+        <v>1.032035038584023</v>
       </c>
       <c r="J17">
-        <v>0.9801176156544821</v>
+        <v>1.034280380790188</v>
       </c>
       <c r="K17">
-        <v>0.9933867647115825</v>
+        <v>1.035381974361457</v>
       </c>
       <c r="L17">
-        <v>0.9785911960570561</v>
+        <v>1.031397407177848</v>
       </c>
       <c r="M17">
-        <v>0.9743231986493892</v>
+        <v>1.03933425897727</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.952911656801287</v>
+        <v>1.028421348822637</v>
       </c>
       <c r="D18">
-        <v>0.9807281087232178</v>
+        <v>1.03228829788622</v>
       </c>
       <c r="E18">
-        <v>0.9658248836722908</v>
+        <v>1.028328694147911</v>
       </c>
       <c r="F18">
-        <v>0.9618734556986949</v>
+        <v>1.036362857121223</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026051456748343</v>
+        <v>1.032127167887168</v>
       </c>
       <c r="J18">
-        <v>0.9818797283594013</v>
+        <v>1.034574663390821</v>
       </c>
       <c r="K18">
-        <v>0.994888004002603</v>
+        <v>1.035625047099875</v>
       </c>
       <c r="L18">
-        <v>0.9802608050465274</v>
+        <v>1.031679226411375</v>
       </c>
       <c r="M18">
-        <v>0.9763844395951699</v>
+        <v>1.039685544116076</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9536870420294234</v>
+        <v>1.028549662988278</v>
       </c>
       <c r="D19">
-        <v>0.9813129133540991</v>
+        <v>1.032385818951487</v>
       </c>
       <c r="E19">
-        <v>0.9664698147047026</v>
+        <v>1.028439546053953</v>
       </c>
       <c r="F19">
-        <v>0.962653983680222</v>
+        <v>1.036497336958106</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02628918657614</v>
+        <v>1.032158531016939</v>
       </c>
       <c r="J19">
-        <v>0.982475918370905</v>
+        <v>1.034674946888344</v>
       </c>
       <c r="K19">
-        <v>0.9953958763763994</v>
+        <v>1.03570786724053</v>
       </c>
       <c r="L19">
-        <v>0.9808257522634616</v>
+        <v>1.03177526511955</v>
       </c>
       <c r="M19">
-        <v>0.9770818752550253</v>
+        <v>1.039805263815975</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9501956168739754</v>
+        <v>1.027975594803011</v>
       </c>
       <c r="D20">
-        <v>0.978680306582874</v>
+        <v>1.031949481601221</v>
       </c>
       <c r="E20">
-        <v>0.9635667545233714</v>
+        <v>1.027943614168881</v>
       </c>
       <c r="F20">
-        <v>0.9591399471973903</v>
+        <v>1.035895709519933</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025217774204714</v>
+        <v>1.032018068053971</v>
       </c>
       <c r="J20">
-        <v>0.9797912498806037</v>
+        <v>1.034226221509051</v>
       </c>
       <c r="K20">
-        <v>0.9931086906181624</v>
+        <v>1.035337233758533</v>
       </c>
       <c r="L20">
-        <v>0.9782819896341461</v>
+        <v>1.03134554276884</v>
       </c>
       <c r="M20">
-        <v>0.9739414485292304</v>
+        <v>1.03926961439939</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9383999731542383</v>
+        <v>1.026105370671822</v>
       </c>
       <c r="D21">
-        <v>0.9697996543217716</v>
+        <v>1.030527349374859</v>
       </c>
       <c r="E21">
-        <v>0.9537773044119344</v>
+        <v>1.026328151540666</v>
       </c>
       <c r="F21">
-        <v>0.9472781157236407</v>
+        <v>1.033936149897492</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.021581520303151</v>
+        <v>1.031557886378628</v>
       </c>
       <c r="J21">
-        <v>0.9707197033883633</v>
+        <v>1.032763215793967</v>
       </c>
       <c r="K21">
-        <v>0.9853766957221155</v>
+        <v>1.034127974308626</v>
       </c>
       <c r="L21">
-        <v>0.96969068557712</v>
+        <v>1.029944660280965</v>
       </c>
       <c r="M21">
-        <v>0.9633322381211205</v>
+        <v>1.037523985823792</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9306045765459432</v>
+        <v>1.024926441419927</v>
       </c>
       <c r="D22">
-        <v>0.9639432066709982</v>
+        <v>1.029630419603168</v>
       </c>
       <c r="E22">
-        <v>0.9473237881913508</v>
+        <v>1.025309979356703</v>
       </c>
       <c r="F22">
-        <v>0.939447418345791</v>
+        <v>1.032701249950323</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.019166510489584</v>
+        <v>1.031265829933341</v>
       </c>
       <c r="J22">
-        <v>0.9647245187280963</v>
+        <v>1.031840121238569</v>
       </c>
       <c r="K22">
-        <v>0.9802644712972273</v>
+        <v>1.033364324616098</v>
       </c>
       <c r="L22">
-        <v>0.9640163388217382</v>
+        <v>1.02906089148516</v>
       </c>
       <c r="M22">
-        <v>0.956322076109805</v>
+        <v>1.036423162950955</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9347756856919479</v>
+        <v>1.025551707736269</v>
       </c>
       <c r="D23">
-        <v>0.9670755273703565</v>
+        <v>1.030106165831834</v>
       </c>
       <c r="E23">
-        <v>0.950775274603026</v>
+        <v>1.025849969400086</v>
       </c>
       <c r="F23">
-        <v>0.9436365922100864</v>
+        <v>1.033356168810351</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.020459767214599</v>
+        <v>1.031420913993505</v>
       </c>
       <c r="J23">
-        <v>0.9679323123396191</v>
+        <v>1.032329782540733</v>
       </c>
       <c r="K23">
-        <v>0.9830000133109088</v>
+        <v>1.033769469559321</v>
       </c>
       <c r="L23">
-        <v>0.967052123750585</v>
+        <v>1.029529679953492</v>
       </c>
       <c r="M23">
-        <v>0.9600728713742144</v>
+        <v>1.037007045311348</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9503875058208396</v>
+        <v>1.028006898843596</v>
       </c>
       <c r="D24">
-        <v>0.9788249497698169</v>
+        <v>1.03197327748399</v>
       </c>
       <c r="E24">
-        <v>0.9637262431175629</v>
+        <v>1.027970656663211</v>
       </c>
       <c r="F24">
-        <v>0.9593330425480315</v>
+        <v>1.035928514682806</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025276721891186</v>
+        <v>1.03202573722976</v>
       </c>
       <c r="J24">
-        <v>0.9799388074051414</v>
+        <v>1.0342506948428</v>
       </c>
       <c r="K24">
-        <v>0.9932344153149353</v>
+        <v>1.035357451234523</v>
       </c>
       <c r="L24">
-        <v>0.978421787995107</v>
+        <v>1.031368979059058</v>
       </c>
       <c r="M24">
-        <v>0.9741140459281851</v>
+        <v>1.03929882559223</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9670875860663338</v>
+        <v>1.030843247153841</v>
       </c>
       <c r="D25">
-        <v>0.9914320664185173</v>
+        <v>1.034128193999134</v>
       </c>
       <c r="E25">
-        <v>0.9776345009919178</v>
+        <v>1.030421242386259</v>
       </c>
       <c r="F25">
-        <v>0.9761545854436566</v>
+        <v>1.038901696383919</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030376357157829</v>
+        <v>1.032715888075867</v>
       </c>
       <c r="J25">
-        <v>0.9927757215244802</v>
+        <v>1.036466060332153</v>
       </c>
       <c r="K25">
-        <v>1.004164860763135</v>
+        <v>1.03718598657946</v>
       </c>
       <c r="L25">
-        <v>0.9905902271979447</v>
+        <v>1.033490772079453</v>
       </c>
       <c r="M25">
-        <v>0.9891347046819747</v>
+        <v>1.041944509716572</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_30/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.033095748054874</v>
+        <v>0.9794720714831353</v>
       </c>
       <c r="D2">
-        <v>1.035837824644372</v>
+        <v>1.000801697957584</v>
       </c>
       <c r="E2">
-        <v>1.032367888000352</v>
+        <v>0.9879831742855445</v>
       </c>
       <c r="F2">
-        <v>1.041264067148589</v>
+        <v>0.9886511130929798</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033257053570356</v>
+        <v>1.034111177119151</v>
       </c>
       <c r="J2">
-        <v>1.038222354002993</v>
+        <v>1.002284598065238</v>
       </c>
       <c r="K2">
-        <v>1.038633284321467</v>
+        <v>1.012249875142458</v>
       </c>
       <c r="L2">
-        <v>1.035173321254598</v>
+        <v>0.9996125006998962</v>
       </c>
       <c r="M2">
-        <v>1.044044074934244</v>
+        <v>1.000270853440995</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.034725863497439</v>
+        <v>0.9880034964380617</v>
       </c>
       <c r="D3">
-        <v>1.037074053980286</v>
+        <v>1.007263859935947</v>
       </c>
       <c r="E3">
-        <v>1.033776928272614</v>
+        <v>0.9951285912753635</v>
       </c>
       <c r="F3">
-        <v>1.042974392707843</v>
+        <v>0.9972713451485689</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033644668577635</v>
+        <v>1.036654942646632</v>
       </c>
       <c r="J3">
-        <v>1.039491589352489</v>
+        <v>1.008826627968924</v>
       </c>
       <c r="K3">
-        <v>1.039677857957511</v>
+        <v>1.017804634393345</v>
       </c>
       <c r="L3">
-        <v>1.036389513817422</v>
+        <v>1.005824184503356</v>
       </c>
       <c r="M3">
-        <v>1.045562631427252</v>
+        <v>1.00793925909448</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.035778243914784</v>
+        <v>0.9933331840386763</v>
       </c>
       <c r="D4">
-        <v>1.037871668507611</v>
+        <v>1.011303199121995</v>
       </c>
       <c r="E4">
-        <v>1.034686703648658</v>
+        <v>0.999599036677791</v>
       </c>
       <c r="F4">
-        <v>1.044078879040008</v>
+        <v>1.002661594386634</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033893043715278</v>
+        <v>1.038230047806775</v>
       </c>
       <c r="J4">
-        <v>1.040310163712611</v>
+        <v>1.012908978884927</v>
       </c>
       <c r="K4">
-        <v>1.040350909144308</v>
+        <v>1.021267092090802</v>
       </c>
       <c r="L4">
-        <v>1.037173994081587</v>
+        <v>1.009702303383662</v>
       </c>
       <c r="M4">
-        <v>1.046542583310784</v>
+        <v>1.012728002103092</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.036220098941274</v>
+        <v>0.995531094663369</v>
       </c>
       <c r="D5">
-        <v>1.038206441095392</v>
+        <v>1.012969388536554</v>
       </c>
       <c r="E5">
-        <v>1.035068711459252</v>
+        <v>1.001444061866019</v>
       </c>
       <c r="F5">
-        <v>1.044542688855023</v>
+        <v>1.004885661753926</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03399688034239</v>
+        <v>1.038876161164899</v>
       </c>
       <c r="J5">
-        <v>1.04065365384867</v>
+        <v>1.014591325632215</v>
       </c>
       <c r="K5">
-        <v>1.040633183284157</v>
+        <v>1.02269302482105</v>
       </c>
       <c r="L5">
-        <v>1.037503205066693</v>
+        <v>1.011300925995379</v>
       </c>
       <c r="M5">
-        <v>1.046953930698858</v>
+        <v>1.014702346839527</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.036294255519627</v>
+        <v>0.9958977109333866</v>
       </c>
       <c r="D6">
-        <v>1.038262619186853</v>
+        <v>1.013247332089924</v>
       </c>
       <c r="E6">
-        <v>1.035132825444455</v>
+        <v>1.001751898270272</v>
       </c>
       <c r="F6">
-        <v>1.044620534653301</v>
+        <v>1.00525670950845</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034014281036542</v>
+        <v>1.038983729373591</v>
       </c>
       <c r="J6">
-        <v>1.040711290177688</v>
+        <v>1.014871873256343</v>
       </c>
       <c r="K6">
-        <v>1.040680538898501</v>
+        <v>1.022930755685881</v>
       </c>
       <c r="L6">
-        <v>1.03755844701284</v>
+        <v>1.011567537229272</v>
       </c>
       <c r="M6">
-        <v>1.047022961450647</v>
+        <v>1.015031641818233</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.035784150209496</v>
+        <v>0.9933627166690454</v>
       </c>
       <c r="D7">
-        <v>1.037876143883805</v>
+        <v>1.01132558577345</v>
       </c>
       <c r="E7">
-        <v>1.034691809857147</v>
+        <v>0.9996238220861432</v>
       </c>
       <c r="F7">
-        <v>1.044085078500674</v>
+        <v>1.002691473842413</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033894433460863</v>
+        <v>1.038238743178635</v>
       </c>
       <c r="J7">
-        <v>1.040314755940801</v>
+        <v>1.012931588808692</v>
       </c>
       <c r="K7">
-        <v>1.040354683553152</v>
+        <v>1.02128625976688</v>
       </c>
       <c r="L7">
-        <v>1.037178395299684</v>
+        <v>1.009723786372799</v>
       </c>
       <c r="M7">
-        <v>1.046548082192401</v>
+        <v>1.012754532739684</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.03364716016147</v>
+        <v>0.9823966802344806</v>
       </c>
       <c r="D8">
-        <v>1.036256097028968</v>
+        <v>1.00301635626621</v>
       </c>
       <c r="E8">
-        <v>1.032844492881393</v>
+        <v>0.9904311689570978</v>
       </c>
       <c r="F8">
-        <v>1.041842544563812</v>
+        <v>0.9916050642866165</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033388556616968</v>
+        <v>1.034986107424489</v>
       </c>
       <c r="J8">
-        <v>1.038651863868987</v>
+        <v>1.004528139135591</v>
       </c>
       <c r="K8">
-        <v>1.038986899184738</v>
+        <v>1.014155623527913</v>
       </c>
       <c r="L8">
-        <v>1.035584857458017</v>
+        <v>1.001742335430606</v>
       </c>
       <c r="M8">
-        <v>1.04455783498056</v>
+        <v>1.002899964050086</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.029862485496266</v>
+        <v>0.9614608317743306</v>
       </c>
       <c r="D9">
-        <v>1.033383321459145</v>
+        <v>0.9871804274063474</v>
       </c>
       <c r="E9">
-        <v>1.029573790681577</v>
+        <v>0.9729422955546568</v>
       </c>
       <c r="F9">
-        <v>1.037873433578812</v>
+        <v>0.9704832130600649</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032478317804452</v>
+        <v>1.028665387082361</v>
       </c>
       <c r="J9">
-        <v>1.03570049581953</v>
+        <v>0.9884519639527685</v>
       </c>
       <c r="K9">
-        <v>1.03655445887289</v>
+        <v>1.000484974814284</v>
       </c>
       <c r="L9">
-        <v>1.032757475077431</v>
+        <v>0.9864901695763196</v>
       </c>
       <c r="M9">
-        <v>1.041029912062323</v>
+        <v>0.984074049076463</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.027325815932185</v>
+        <v>0.9461724415642377</v>
       </c>
       <c r="D10">
-        <v>1.031455489934723</v>
+        <v>0.975648940564802</v>
       </c>
       <c r="E10">
-        <v>1.027382312206215</v>
+        <v>0.9602246137542442</v>
       </c>
       <c r="F10">
-        <v>1.035214815411138</v>
+        <v>0.9550924423132416</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031858628214962</v>
+        <v>1.023980267206534</v>
       </c>
       <c r="J10">
-        <v>1.033718117961168</v>
+        <v>0.9766973672618759</v>
       </c>
       <c r="K10">
-        <v>1.034917404475413</v>
+        <v>0.9904722345184565</v>
       </c>
       <c r="L10">
-        <v>1.030858985989489</v>
+        <v>0.9753511837882591</v>
       </c>
       <c r="M10">
-        <v>1.038663221705197</v>
+        <v>0.9703227851977065</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.026224024956077</v>
+        <v>0.9391684986138372</v>
       </c>
       <c r="D11">
-        <v>1.030617602143004</v>
+        <v>0.9703775856061412</v>
       </c>
       <c r="E11">
-        <v>1.026430633345173</v>
+        <v>0.9544142385565531</v>
       </c>
       <c r="F11">
-        <v>1.034060451929174</v>
+        <v>0.9480504813819247</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031587197210532</v>
+        <v>1.021819136629244</v>
       </c>
       <c r="J11">
-        <v>1.032856084945113</v>
+        <v>0.9713107724331627</v>
       </c>
       <c r="K11">
-        <v>1.034204774506838</v>
+        <v>0.985880626743135</v>
       </c>
       <c r="L11">
-        <v>1.030033578471481</v>
+        <v>0.9702502714530152</v>
       </c>
       <c r="M11">
-        <v>1.037634760636037</v>
+        <v>0.9640234123669073</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.025814245696935</v>
+        <v>0.936502186219475</v>
       </c>
       <c r="D12">
-        <v>1.030305893898078</v>
+        <v>0.9683729408294425</v>
       </c>
       <c r="E12">
-        <v>1.026076712100225</v>
+        <v>0.9522050022638526</v>
       </c>
       <c r="F12">
-        <v>1.033631179185868</v>
+        <v>0.9453711240367856</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031485905548131</v>
+        <v>1.020994374128634</v>
       </c>
       <c r="J12">
-        <v>1.032535327662818</v>
+        <v>0.9692601317922652</v>
       </c>
       <c r="K12">
-        <v>1.033939495491647</v>
+        <v>0.9841322288455503</v>
       </c>
       <c r="L12">
-        <v>1.02972647151333</v>
+        <v>0.9683089720430311</v>
       </c>
       <c r="M12">
-        <v>1.037252179239909</v>
+        <v>0.9616255043402551</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.025902168736772</v>
+        <v>0.9370771755449157</v>
       </c>
       <c r="D13">
-        <v>1.0303727782319</v>
+        <v>0.968805140860773</v>
       </c>
       <c r="E13">
-        <v>1.026152648843106</v>
+        <v>0.9526812959749097</v>
       </c>
       <c r="F13">
-        <v>1.033723282102077</v>
+        <v>0.9459488604712502</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031507654294005</v>
+        <v>1.02117232316538</v>
       </c>
       <c r="J13">
-        <v>1.032604156707189</v>
+        <v>0.9697023496021877</v>
       </c>
       <c r="K13">
-        <v>1.033996424981817</v>
+        <v>0.9845092852004631</v>
       </c>
       <c r="L13">
-        <v>1.029792370423935</v>
+        <v>0.9687275834186616</v>
       </c>
       <c r="M13">
-        <v>1.037334270049358</v>
+        <v>0.9621426018458941</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.026190163271231</v>
+        <v>0.9389494662015072</v>
       </c>
       <c r="D14">
-        <v>1.030591846080719</v>
+        <v>0.9702128632279147</v>
       </c>
       <c r="E14">
-        <v>1.026401386848785</v>
+        <v>0.9542326974394331</v>
       </c>
       <c r="F14">
-        <v>1.034024978210796</v>
+        <v>0.9478303478682095</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03157883402431</v>
+        <v>1.021751424344548</v>
       </c>
       <c r="J14">
-        <v>1.03282958253512</v>
+        <v>0.9711423156484204</v>
       </c>
       <c r="K14">
-        <v>1.034182858276301</v>
+        <v>0.9857370063679671</v>
       </c>
       <c r="L14">
-        <v>1.030008203459151</v>
+        <v>0.9700907847633865</v>
       </c>
       <c r="M14">
-        <v>1.0376031479492</v>
+        <v>0.9638264243459128</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.026367536192252</v>
+        <v>0.9400942361828408</v>
       </c>
       <c r="D15">
-        <v>1.03072675718279</v>
+        <v>0.9710738697432748</v>
       </c>
       <c r="E15">
-        <v>1.026554585833761</v>
+        <v>0.9551816311243632</v>
       </c>
       <c r="F15">
-        <v>1.034210797649698</v>
+        <v>0.9489809312242139</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031622627786949</v>
+        <v>1.022105239772764</v>
       </c>
       <c r="J15">
-        <v>1.032968400300011</v>
+        <v>0.9720227527589431</v>
       </c>
       <c r="K15">
-        <v>1.034297649304603</v>
+        <v>0.9864876204695308</v>
       </c>
       <c r="L15">
-        <v>1.030141116903538</v>
+        <v>0.9709243637573924</v>
       </c>
       <c r="M15">
-        <v>1.037768737186225</v>
+        <v>0.9648559878483075</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.027398865356491</v>
+        <v>0.9466286060436024</v>
       </c>
       <c r="D16">
-        <v>1.031511031112012</v>
+        <v>0.9759925279886081</v>
       </c>
       <c r="E16">
-        <v>1.02744541298648</v>
+        <v>0.9606033935784484</v>
       </c>
       <c r="F16">
-        <v>1.035291358739342</v>
+        <v>0.9555512732707732</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031876576501218</v>
+        <v>1.024120730627081</v>
       </c>
       <c r="J16">
-        <v>1.033775250373485</v>
+        <v>0.9770481784972258</v>
       </c>
       <c r="K16">
-        <v>1.034964619050841</v>
+        <v>0.99077121098267</v>
       </c>
       <c r="L16">
-        <v>1.03091369409555</v>
+        <v>0.9756834668012585</v>
       </c>
       <c r="M16">
-        <v>1.038731398795248</v>
+        <v>0.9707330791938344</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.028044871220771</v>
+        <v>0.9506200357702917</v>
       </c>
       <c r="D17">
-        <v>1.032002141969011</v>
+        <v>0.9790002346916746</v>
       </c>
       <c r="E17">
-        <v>1.028003459824211</v>
+        <v>0.9639195204794029</v>
       </c>
       <c r="F17">
-        <v>1.035968308209439</v>
+        <v>0.9595670400508669</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032035038584023</v>
+        <v>1.025348144776273</v>
       </c>
       <c r="J17">
-        <v>1.034280380790188</v>
+        <v>0.9801176156544804</v>
       </c>
       <c r="K17">
-        <v>1.035381974361457</v>
+        <v>0.9933867647115809</v>
       </c>
       <c r="L17">
-        <v>1.031397407177848</v>
+        <v>0.9785911960570545</v>
       </c>
       <c r="M17">
-        <v>1.03933425897727</v>
+        <v>0.9743231986493884</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.028421348822637</v>
+        <v>0.9529116568012869</v>
       </c>
       <c r="D18">
-        <v>1.03228829788622</v>
+        <v>0.9807281087232176</v>
       </c>
       <c r="E18">
-        <v>1.028328694147911</v>
+        <v>0.9658248836722905</v>
       </c>
       <c r="F18">
-        <v>1.036362857121223</v>
+        <v>0.9618734556986946</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032127167887168</v>
+        <v>1.026051456748343</v>
       </c>
       <c r="J18">
-        <v>1.034574663390821</v>
+        <v>0.9818797283594011</v>
       </c>
       <c r="K18">
-        <v>1.035625047099875</v>
+        <v>0.9948880040026029</v>
       </c>
       <c r="L18">
-        <v>1.031679226411375</v>
+        <v>0.9802608050465268</v>
       </c>
       <c r="M18">
-        <v>1.039685544116076</v>
+        <v>0.9763844395951696</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.028549662988278</v>
+        <v>0.9536870420294253</v>
       </c>
       <c r="D19">
-        <v>1.032385818951487</v>
+        <v>0.9813129133541009</v>
       </c>
       <c r="E19">
-        <v>1.028439546053953</v>
+        <v>0.9664698147047045</v>
       </c>
       <c r="F19">
-        <v>1.036497336958106</v>
+        <v>0.9626539836802234</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032158531016939</v>
+        <v>1.026289186576141</v>
       </c>
       <c r="J19">
-        <v>1.034674946888344</v>
+        <v>0.9824759183709071</v>
       </c>
       <c r="K19">
-        <v>1.03570786724053</v>
+        <v>0.9953958763764013</v>
       </c>
       <c r="L19">
-        <v>1.03177526511955</v>
+        <v>0.9808257522634635</v>
       </c>
       <c r="M19">
-        <v>1.039805263815975</v>
+        <v>0.9770818752550268</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.027975594803011</v>
+        <v>0.950195616873973</v>
       </c>
       <c r="D20">
-        <v>1.031949481601221</v>
+        <v>0.978680306582872</v>
       </c>
       <c r="E20">
-        <v>1.027943614168881</v>
+        <v>0.9635667545233688</v>
       </c>
       <c r="F20">
-        <v>1.035895709519933</v>
+        <v>0.959139947197388</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032018068053971</v>
+        <v>1.025217774204713</v>
       </c>
       <c r="J20">
-        <v>1.034226221509051</v>
+        <v>0.9797912498806013</v>
       </c>
       <c r="K20">
-        <v>1.035337233758533</v>
+        <v>0.9931086906181604</v>
       </c>
       <c r="L20">
-        <v>1.03134554276884</v>
+        <v>0.9782819896341438</v>
       </c>
       <c r="M20">
-        <v>1.03926961439939</v>
+        <v>0.9739414485292283</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.026105370671822</v>
+        <v>0.9383999731542373</v>
       </c>
       <c r="D21">
-        <v>1.030527349374859</v>
+        <v>0.9697996543217713</v>
       </c>
       <c r="E21">
-        <v>1.026328151540666</v>
+        <v>0.9537773044119334</v>
       </c>
       <c r="F21">
-        <v>1.033936149897492</v>
+        <v>0.9472781157236406</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031557886378628</v>
+        <v>1.021581520303151</v>
       </c>
       <c r="J21">
-        <v>1.032763215793967</v>
+        <v>0.9707197033883626</v>
       </c>
       <c r="K21">
-        <v>1.034127974308626</v>
+        <v>0.9853766957221151</v>
       </c>
       <c r="L21">
-        <v>1.029944660280965</v>
+        <v>0.969690685577119</v>
       </c>
       <c r="M21">
-        <v>1.037523985823792</v>
+        <v>0.96333223812112</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.024926441419927</v>
+        <v>0.9306045765459428</v>
       </c>
       <c r="D22">
-        <v>1.029630419603168</v>
+        <v>0.9639432066709976</v>
       </c>
       <c r="E22">
-        <v>1.025309979356703</v>
+        <v>0.94732378819135</v>
       </c>
       <c r="F22">
-        <v>1.032701249950323</v>
+        <v>0.9394474183457912</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031265829933341</v>
+        <v>1.019166510489584</v>
       </c>
       <c r="J22">
-        <v>1.031840121238569</v>
+        <v>0.9647245187280959</v>
       </c>
       <c r="K22">
-        <v>1.033364324616098</v>
+        <v>0.9802644712972266</v>
       </c>
       <c r="L22">
-        <v>1.02906089148516</v>
+        <v>0.9640163388217377</v>
       </c>
       <c r="M22">
-        <v>1.036423162950955</v>
+        <v>0.9563220761098052</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.025551707736269</v>
+        <v>0.9347756856919455</v>
       </c>
       <c r="D23">
-        <v>1.030106165831834</v>
+        <v>0.9670755273703543</v>
       </c>
       <c r="E23">
-        <v>1.025849969400086</v>
+        <v>0.9507752746030235</v>
       </c>
       <c r="F23">
-        <v>1.033356168810351</v>
+        <v>0.9436365922100846</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031420913993505</v>
+        <v>1.020459767214598</v>
       </c>
       <c r="J23">
-        <v>1.032329782540733</v>
+        <v>0.9679323123396167</v>
       </c>
       <c r="K23">
-        <v>1.033769469559321</v>
+        <v>0.9830000133109068</v>
       </c>
       <c r="L23">
-        <v>1.029529679953492</v>
+        <v>0.9670521237505825</v>
       </c>
       <c r="M23">
-        <v>1.037007045311348</v>
+        <v>0.9600728713742125</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.028006898843596</v>
+        <v>0.9503875058208398</v>
       </c>
       <c r="D24">
-        <v>1.03197327748399</v>
+        <v>0.9788249497698167</v>
       </c>
       <c r="E24">
-        <v>1.027970656663211</v>
+        <v>0.9637262431175632</v>
       </c>
       <c r="F24">
-        <v>1.035928514682806</v>
+        <v>0.9593330425480321</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03202573722976</v>
+        <v>1.025276721891186</v>
       </c>
       <c r="J24">
-        <v>1.0342506948428</v>
+        <v>0.9799388074051417</v>
       </c>
       <c r="K24">
-        <v>1.035357451234523</v>
+        <v>0.9932344153149352</v>
       </c>
       <c r="L24">
-        <v>1.031368979059058</v>
+        <v>0.9784217879951072</v>
       </c>
       <c r="M24">
-        <v>1.03929882559223</v>
+        <v>0.9741140459281855</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C25">
-        <v>1.030843247153841</v>
+        <v>0.967087586066333</v>
       </c>
       <c r="D25">
-        <v>1.034128193999134</v>
+        <v>0.9914320664185168</v>
       </c>
       <c r="E25">
-        <v>1.030421242386259</v>
+        <v>0.9776345009919171</v>
       </c>
       <c r="F25">
-        <v>1.038901696383919</v>
+        <v>0.976154585443656</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032715888075867</v>
+        <v>1.030376357157829</v>
       </c>
       <c r="J25">
-        <v>1.036466060332153</v>
+        <v>0.9927757215244797</v>
       </c>
       <c r="K25">
-        <v>1.03718598657946</v>
+        <v>1.004164860763134</v>
       </c>
       <c r="L25">
-        <v>1.033490772079453</v>
+        <v>0.9905902271979442</v>
       </c>
       <c r="M25">
-        <v>1.041944509716572</v>
+        <v>0.9891347046819741</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_30/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9794720714831353</v>
+        <v>1.01375947484849</v>
       </c>
       <c r="D2">
-        <v>1.000801697957584</v>
+        <v>1.028658650004163</v>
       </c>
       <c r="E2">
-        <v>0.9879831742855445</v>
+        <v>1.026959710550555</v>
       </c>
       <c r="F2">
-        <v>0.9886511130929798</v>
+        <v>1.03587825118778</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034111177119151</v>
+        <v>1.047410675001516</v>
       </c>
       <c r="J2">
-        <v>1.002284598065238</v>
+        <v>1.035536288993844</v>
       </c>
       <c r="K2">
-        <v>1.012249875142458</v>
+        <v>1.039732656260297</v>
       </c>
       <c r="L2">
-        <v>0.9996125006998962</v>
+        <v>1.038055808623001</v>
       </c>
       <c r="M2">
-        <v>1.000270853440995</v>
+        <v>1.046859388730446</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.005712725503999</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.045658435328096</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.039164707059424</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9880034964380617</v>
+        <v>1.019042081162448</v>
       </c>
       <c r="D3">
-        <v>1.007263859935947</v>
+        <v>1.03216403665428</v>
       </c>
       <c r="E3">
-        <v>0.9951285912753635</v>
+        <v>1.031149883821679</v>
       </c>
       <c r="F3">
-        <v>0.9972713451485689</v>
+        <v>1.039661058112699</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036654942646632</v>
+        <v>1.048556447447608</v>
       </c>
       <c r="J3">
-        <v>1.008826627968924</v>
+        <v>1.039026765184807</v>
       </c>
       <c r="K3">
-        <v>1.017804634393345</v>
+        <v>1.042401270454534</v>
       </c>
       <c r="L3">
-        <v>1.005824184503356</v>
+        <v>1.041399125525336</v>
       </c>
       <c r="M3">
-        <v>1.00793925909448</v>
+        <v>1.049810423205949</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.04799396099269</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.041048987970076</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9933331840386763</v>
+        <v>1.022385331984428</v>
       </c>
       <c r="D4">
-        <v>1.011303199121995</v>
+        <v>1.034385218825058</v>
       </c>
       <c r="E4">
-        <v>0.999599036677791</v>
+        <v>1.033807645225675</v>
       </c>
       <c r="F4">
-        <v>1.002661594386634</v>
+        <v>1.042062868629298</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038230047806775</v>
+        <v>1.049270696328013</v>
       </c>
       <c r="J4">
-        <v>1.012908978884927</v>
+        <v>1.041233249152962</v>
       </c>
       <c r="K4">
-        <v>1.021267092090802</v>
+        <v>1.044085627798282</v>
       </c>
       <c r="L4">
-        <v>1.009702303383662</v>
+        <v>1.043514470671694</v>
       </c>
       <c r="M4">
-        <v>1.012728002103092</v>
+        <v>1.051678813372966</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.049472649898366</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.042240864241223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.995531094663369</v>
+        <v>1.023779910502027</v>
       </c>
       <c r="D5">
-        <v>1.012969388536554</v>
+        <v>1.035315000969621</v>
       </c>
       <c r="E5">
-        <v>1.001444061866019</v>
+        <v>1.034918313157961</v>
       </c>
       <c r="F5">
-        <v>1.004885661753926</v>
+        <v>1.043066452417997</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038876161164899</v>
+        <v>1.049568246957736</v>
       </c>
       <c r="J5">
-        <v>1.014591325632215</v>
+        <v>1.042154980646584</v>
       </c>
       <c r="K5">
-        <v>1.02269302482105</v>
+        <v>1.044790701706942</v>
       </c>
       <c r="L5">
-        <v>1.011300925995379</v>
+        <v>1.044398300835738</v>
       </c>
       <c r="M5">
-        <v>1.014702346839527</v>
+        <v>1.052459185404195</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.050090254218541</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.042746553412942</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9958977109333866</v>
+        <v>1.02402075731325</v>
       </c>
       <c r="D6">
-        <v>1.013247332089924</v>
+        <v>1.035478859286105</v>
       </c>
       <c r="E6">
-        <v>1.001751898270272</v>
+        <v>1.035111024747948</v>
       </c>
       <c r="F6">
-        <v>1.00525670950845</v>
+        <v>1.043239774745999</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038983729373591</v>
+        <v>1.049622256387936</v>
       </c>
       <c r="J6">
-        <v>1.014871873256343</v>
+        <v>1.04231655381816</v>
       </c>
       <c r="K6">
-        <v>1.022930755685881</v>
+        <v>1.044916800650012</v>
       </c>
       <c r="L6">
-        <v>1.011567537229272</v>
+        <v>1.044552922588473</v>
       </c>
       <c r="M6">
-        <v>1.015031641818233</v>
+        <v>1.052595034374973</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.050197768156895</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.042844426847512</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9933627166690454</v>
+        <v>1.022424824589344</v>
       </c>
       <c r="D7">
-        <v>1.01132558577345</v>
+        <v>1.034420296199649</v>
       </c>
       <c r="E7">
-        <v>0.9996238220861432</v>
+        <v>1.033841333623881</v>
       </c>
       <c r="F7">
-        <v>1.002691473842413</v>
+        <v>1.042091025008944</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038238743178635</v>
+        <v>1.049286658304983</v>
       </c>
       <c r="J7">
-        <v>1.012931588808692</v>
+        <v>1.041265902608406</v>
       </c>
       <c r="K7">
-        <v>1.02128625976688</v>
+        <v>1.044117447618341</v>
       </c>
       <c r="L7">
-        <v>1.009723786372799</v>
+        <v>1.043544914277892</v>
       </c>
       <c r="M7">
-        <v>1.012754532739684</v>
+        <v>1.051703822729993</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.049492442884945</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.042283407572133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9823966802344806</v>
+        <v>1.015587303102402</v>
       </c>
       <c r="D8">
-        <v>1.00301635626621</v>
+        <v>1.029881994571195</v>
       </c>
       <c r="E8">
-        <v>0.9904311689570978</v>
+        <v>1.02841132471551</v>
       </c>
       <c r="F8">
-        <v>0.9916050642866165</v>
+        <v>1.037185307089764</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034986107424489</v>
+        <v>1.047818917533486</v>
       </c>
       <c r="J8">
-        <v>1.004528139135591</v>
+        <v>1.036752814325691</v>
       </c>
       <c r="K8">
-        <v>1.014155623527913</v>
+        <v>1.040671854511358</v>
       </c>
       <c r="L8">
-        <v>1.001742335430606</v>
+        <v>1.039219722244958</v>
       </c>
       <c r="M8">
-        <v>1.002899964050086</v>
+        <v>1.04788407942897</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.046469403115485</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.039851673386835</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9614608317743306</v>
+        <v>1.002896044930407</v>
       </c>
       <c r="D9">
-        <v>0.9871804274063474</v>
+        <v>1.021469123757686</v>
       </c>
       <c r="E9">
-        <v>0.9729422955546568</v>
+        <v>1.018378729846412</v>
       </c>
       <c r="F9">
-        <v>0.9704832130600649</v>
+        <v>1.028145421808903</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028665387082361</v>
+        <v>1.044997505563082</v>
       </c>
       <c r="J9">
-        <v>0.9884519639527685</v>
+        <v>1.028346949243379</v>
       </c>
       <c r="K9">
-        <v>1.000484974814284</v>
+        <v>1.034223224434102</v>
       </c>
       <c r="L9">
-        <v>0.9864901695763196</v>
+        <v>1.031180499926424</v>
       </c>
       <c r="M9">
-        <v>0.984074049076463</v>
+        <v>1.040797786621926</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.040861101930743</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.035288868931156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9461724415642377</v>
+        <v>0.9941200054261069</v>
       </c>
       <c r="D10">
-        <v>0.975648940564802</v>
+        <v>1.015694184836489</v>
       </c>
       <c r="E10">
-        <v>0.9602246137542442</v>
+        <v>1.011523190072755</v>
       </c>
       <c r="F10">
-        <v>0.9550924423132416</v>
+        <v>1.022027383597431</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023980267206534</v>
+        <v>1.043027783759848</v>
       </c>
       <c r="J10">
-        <v>0.9766973672618759</v>
+        <v>1.022568873233855</v>
       </c>
       <c r="K10">
-        <v>0.9904722345184565</v>
+        <v>1.029785741979055</v>
       </c>
       <c r="L10">
-        <v>0.9753511837882591</v>
+        <v>1.025687460642269</v>
       </c>
       <c r="M10">
-        <v>0.9703227851977065</v>
+        <v>1.036009999119774</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.037123404128828</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.0321681239827</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9391684986138372</v>
+        <v>0.9913719034105859</v>
       </c>
       <c r="D11">
-        <v>0.9703775856061412</v>
+        <v>1.01405180159998</v>
       </c>
       <c r="E11">
-        <v>0.9544142385565531</v>
+        <v>1.009741726719395</v>
       </c>
       <c r="F11">
-        <v>0.9480504813819247</v>
+        <v>1.020801250127658</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021819136629244</v>
+        <v>1.042674617890591</v>
       </c>
       <c r="J11">
-        <v>0.9713107724331627</v>
+        <v>1.021108079157399</v>
       </c>
       <c r="K11">
-        <v>0.985880626743135</v>
+        <v>1.028713499211204</v>
       </c>
       <c r="L11">
-        <v>0.9702502714530152</v>
+        <v>1.024482237378827</v>
       </c>
       <c r="M11">
-        <v>0.9640234123669073</v>
+        <v>1.035341265210151</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.037031114109577</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.031442988099335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.936502186219475</v>
+        <v>0.9907853744087348</v>
       </c>
       <c r="D12">
-        <v>0.9683729408294425</v>
+        <v>1.01378885162062</v>
       </c>
       <c r="E12">
-        <v>0.9522050022638526</v>
+        <v>1.009553991072111</v>
       </c>
       <c r="F12">
-        <v>0.9453711240367856</v>
+        <v>1.020898838001033</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.020994374128634</v>
+        <v>1.042746559515993</v>
       </c>
       <c r="J12">
-        <v>0.9692601317922652</v>
+        <v>1.020984899143219</v>
       </c>
       <c r="K12">
-        <v>0.9841322288455503</v>
+        <v>1.028656562617938</v>
       </c>
       <c r="L12">
-        <v>0.9683089720430311</v>
+        <v>1.024500412491572</v>
       </c>
       <c r="M12">
-        <v>0.9616255043402551</v>
+        <v>1.035636310902381</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.03759128359118</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.031402731729927</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9370771755449157</v>
+        <v>0.991852931073778</v>
       </c>
       <c r="D13">
-        <v>0.968805140860773</v>
+        <v>1.014597953325523</v>
       </c>
       <c r="E13">
-        <v>0.9526812959749097</v>
+        <v>1.010606647913104</v>
       </c>
       <c r="F13">
-        <v>0.9459488604712502</v>
+        <v>1.022052302779924</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02117232316538</v>
+        <v>1.043169812102041</v>
       </c>
       <c r="J13">
-        <v>0.9697023496021877</v>
+        <v>1.021912238412339</v>
       </c>
       <c r="K13">
-        <v>0.9845092852004631</v>
+        <v>1.029407610063016</v>
       </c>
       <c r="L13">
-        <v>0.9687275834186616</v>
+        <v>1.025490062642442</v>
       </c>
       <c r="M13">
-        <v>0.9621426018458941</v>
+        <v>1.03672621094998</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.038729897568412</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.03193124789594</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9389494662015072</v>
+        <v>0.9933456571482689</v>
       </c>
       <c r="D14">
-        <v>0.9702128632279147</v>
+        <v>1.015648754155873</v>
       </c>
       <c r="E14">
-        <v>0.9542326974394331</v>
+        <v>1.011900823612449</v>
       </c>
       <c r="F14">
-        <v>0.9478303478682095</v>
+        <v>1.023333484002863</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021751424344548</v>
+        <v>1.043624047313684</v>
       </c>
       <c r="J14">
-        <v>0.9711423156484204</v>
+        <v>1.023033962777186</v>
       </c>
       <c r="K14">
-        <v>0.9857370063679671</v>
+        <v>1.030298061206312</v>
       </c>
       <c r="L14">
-        <v>0.9700907847633865</v>
+        <v>1.026618423499586</v>
       </c>
       <c r="M14">
-        <v>0.9638264243459128</v>
+        <v>1.037844794157812</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.039787465064048</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.03256226128059</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9400942361828408</v>
+        <v>0.9940792882480864</v>
       </c>
       <c r="D15">
-        <v>0.9710738697432748</v>
+        <v>1.016147998588166</v>
       </c>
       <c r="E15">
-        <v>0.9551816311243632</v>
+        <v>1.012499664226419</v>
       </c>
       <c r="F15">
-        <v>0.9489809312242139</v>
+        <v>1.02389455980049</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.022105239772764</v>
+        <v>1.04381709653082</v>
       </c>
       <c r="J15">
-        <v>0.9720227527589431</v>
+        <v>1.023547873368457</v>
       </c>
       <c r="K15">
-        <v>0.9864876204695308</v>
+        <v>1.030701406913654</v>
       </c>
       <c r="L15">
-        <v>0.9709243637573924</v>
+        <v>1.02711900314723</v>
       </c>
       <c r="M15">
-        <v>0.9648559878483075</v>
+        <v>1.038309996748715</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.040192694404925</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.032853332706131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9466286060436024</v>
+        <v>0.9975952784958126</v>
       </c>
       <c r="D16">
-        <v>0.9759925279886081</v>
+        <v>1.018438298010012</v>
       </c>
       <c r="E16">
-        <v>0.9606033935784484</v>
+        <v>1.015204530758107</v>
       </c>
       <c r="F16">
-        <v>0.9555512732707732</v>
+        <v>1.026293366849183</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024120730627081</v>
+        <v>1.044583805932454</v>
       </c>
       <c r="J16">
-        <v>0.9770481784972258</v>
+        <v>1.025827539018074</v>
       </c>
       <c r="K16">
-        <v>0.99077121098267</v>
+        <v>1.032446712386099</v>
       </c>
       <c r="L16">
-        <v>0.9756834668012585</v>
+        <v>1.029268696099411</v>
       </c>
       <c r="M16">
-        <v>0.9707330791938344</v>
+        <v>1.04016824494896</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.041622754906809</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.034090500998339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9506200357702917</v>
+        <v>0.999511716879418</v>
       </c>
       <c r="D17">
-        <v>0.9790002346916746</v>
+        <v>1.019647084459639</v>
       </c>
       <c r="E17">
-        <v>0.9639195204794029</v>
+        <v>1.016603280501985</v>
       </c>
       <c r="F17">
-        <v>0.9595670400508669</v>
+        <v>1.027458723346239</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025348144776273</v>
+        <v>1.044932125420628</v>
       </c>
       <c r="J17">
-        <v>0.9801176156544804</v>
+        <v>1.02698867202785</v>
       </c>
       <c r="K17">
-        <v>0.9933867647115809</v>
+        <v>1.033319180750883</v>
       </c>
       <c r="L17">
-        <v>0.9785911960570545</v>
+        <v>1.03032632485429</v>
       </c>
       <c r="M17">
-        <v>0.9743231986493884</v>
+        <v>1.04100184193211</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.042152728606793</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.03470996032675</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9529116568012869</v>
+        <v>1.000204927463856</v>
       </c>
       <c r="D18">
-        <v>0.9807281087232176</v>
+        <v>1.020009812988568</v>
       </c>
       <c r="E18">
-        <v>0.9658248836722905</v>
+        <v>1.016966077537165</v>
       </c>
       <c r="F18">
-        <v>0.9618734556986946</v>
+        <v>1.027610430535976</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026051456748343</v>
+        <v>1.044936469281377</v>
       </c>
       <c r="J18">
-        <v>0.9818797283594011</v>
+        <v>1.027260195120967</v>
       </c>
       <c r="K18">
-        <v>0.9948880040026029</v>
+        <v>1.033491864150545</v>
       </c>
       <c r="L18">
-        <v>0.9802608050465268</v>
+        <v>1.030498242560178</v>
       </c>
       <c r="M18">
-        <v>0.9763844395951696</v>
+        <v>1.040969003832344</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.041889312593644</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.034820393494814</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9536870420294253</v>
+        <v>0.99983853465664</v>
       </c>
       <c r="D19">
-        <v>0.9813129133541009</v>
+        <v>1.019658348362152</v>
       </c>
       <c r="E19">
-        <v>0.9664698147047045</v>
+        <v>1.016430679728085</v>
       </c>
       <c r="F19">
-        <v>0.9626539836802234</v>
+        <v>1.026871025706589</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026289186576141</v>
+        <v>1.044660352615643</v>
       </c>
       <c r="J19">
-        <v>0.9824759183709071</v>
+        <v>1.026772980427102</v>
       </c>
       <c r="K19">
-        <v>0.9953958763764013</v>
+        <v>1.033083394904433</v>
       </c>
       <c r="L19">
-        <v>0.9808257522634635</v>
+        <v>1.029908643961185</v>
       </c>
       <c r="M19">
-        <v>0.9770818752550268</v>
+        <v>1.040179362269341</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.040939699215576</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.034538001708789</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.950195616873973</v>
+        <v>0.9964647791902242</v>
       </c>
       <c r="D20">
-        <v>0.978680306582872</v>
+        <v>1.017259367363251</v>
       </c>
       <c r="E20">
-        <v>0.9635667545233688</v>
+        <v>1.013361570802086</v>
       </c>
       <c r="F20">
-        <v>0.959139947197388</v>
+        <v>1.023663396224372</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025217774204713</v>
+        <v>1.043579547421676</v>
       </c>
       <c r="J20">
-        <v>0.9797912498806013</v>
+        <v>1.024132661165376</v>
       </c>
       <c r="K20">
-        <v>0.9931086906181604</v>
+        <v>1.031005372051728</v>
       </c>
       <c r="L20">
-        <v>0.9782819896341438</v>
+        <v>1.027173472692207</v>
       </c>
       <c r="M20">
-        <v>0.9739414485292283</v>
+        <v>1.037302535201448</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.038135745863227</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.033072699696579</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9383999731542373</v>
+        <v>0.9896122952679931</v>
       </c>
       <c r="D21">
-        <v>0.9697996543217713</v>
+        <v>1.012727123916045</v>
       </c>
       <c r="E21">
-        <v>0.9537773044119334</v>
+        <v>1.007954911956118</v>
       </c>
       <c r="F21">
-        <v>0.9472781157236406</v>
+        <v>1.018773428444002</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.021581520303151</v>
+        <v>1.041970544451622</v>
       </c>
       <c r="J21">
-        <v>0.9707197033883626</v>
+        <v>1.019550835096103</v>
       </c>
       <c r="K21">
-        <v>0.9853766957221151</v>
+        <v>1.027471323161726</v>
       </c>
       <c r="L21">
-        <v>0.969690685577119</v>
+        <v>1.022787127230673</v>
       </c>
       <c r="M21">
-        <v>0.96333223812112</v>
+        <v>1.033407652452137</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.035012285289745</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.030577241118144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9306045765459428</v>
+        <v>0.9852335265082255</v>
       </c>
       <c r="D22">
-        <v>0.9639432066709976</v>
+        <v>1.009836907345669</v>
       </c>
       <c r="E22">
-        <v>0.94732378819135</v>
+        <v>1.004528159561371</v>
       </c>
       <c r="F22">
-        <v>0.9394474183457912</v>
+        <v>1.015703204175472</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.019166510489584</v>
+        <v>1.040939606184192</v>
       </c>
       <c r="J22">
-        <v>0.9647245187280959</v>
+        <v>1.016635800729915</v>
       </c>
       <c r="K22">
-        <v>0.9802644712972266</v>
+        <v>1.025215979884581</v>
       </c>
       <c r="L22">
-        <v>0.9640163388217377</v>
+        <v>1.02001044329574</v>
       </c>
       <c r="M22">
-        <v>0.9563220761098052</v>
+        <v>1.030969866802253</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.03308292391884</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.028969022343332</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9347756856919455</v>
+        <v>0.9875442835099523</v>
       </c>
       <c r="D23">
-        <v>0.9670755273703543</v>
+        <v>1.011352983714711</v>
       </c>
       <c r="E23">
-        <v>0.9507752746030235</v>
+        <v>1.006332636572213</v>
       </c>
       <c r="F23">
-        <v>0.9436365922100846</v>
+        <v>1.017321862216326</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.020459767214598</v>
+        <v>1.041477220184146</v>
       </c>
       <c r="J23">
-        <v>0.9679323123396167</v>
+        <v>1.018167819673978</v>
       </c>
       <c r="K23">
-        <v>0.9830000133109068</v>
+        <v>1.026395159581319</v>
       </c>
       <c r="L23">
-        <v>0.9670521237505825</v>
+        <v>1.021469748495223</v>
       </c>
       <c r="M23">
-        <v>0.9600728713742125</v>
+        <v>1.032252754579036</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.034098253435852</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.029793062494426</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,78 +1599,102 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9503875058208398</v>
+        <v>0.9964345899336908</v>
       </c>
       <c r="D24">
-        <v>0.9788249497698167</v>
+        <v>1.017212597298766</v>
       </c>
       <c r="E24">
-        <v>0.9637262431175632</v>
+        <v>1.013299787941457</v>
       </c>
       <c r="F24">
-        <v>0.9593330425480321</v>
+        <v>1.023575328806192</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025276721891186</v>
+        <v>1.043536683518006</v>
       </c>
       <c r="J24">
-        <v>0.9799388074051417</v>
+        <v>1.024070581569571</v>
       </c>
       <c r="K24">
-        <v>0.9932344153149352</v>
+        <v>1.030944035860953</v>
       </c>
       <c r="L24">
-        <v>0.9784217879951072</v>
+        <v>1.027097301716528</v>
       </c>
       <c r="M24">
-        <v>0.9741140459281855</v>
+        <v>1.037200708858933</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.038014251849669</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.033001823362134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.967087586066333</v>
+        <v>1.006289392120845</v>
       </c>
       <c r="D25">
-        <v>0.9914320664185168</v>
+        <v>1.023729274605312</v>
       </c>
       <c r="E25">
-        <v>0.9776345009919171</v>
+        <v>1.021059179230216</v>
       </c>
       <c r="F25">
-        <v>0.976154585443656</v>
+        <v>1.030554367001113</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030376357157829</v>
+        <v>1.045773765180588</v>
       </c>
       <c r="J25">
-        <v>0.9927757215244797</v>
+        <v>1.030606931296306</v>
       </c>
       <c r="K25">
-        <v>1.004164860763134</v>
+        <v>1.035970062599203</v>
       </c>
       <c r="L25">
-        <v>0.9905902271979442</v>
+        <v>1.03333914358425</v>
       </c>
       <c r="M25">
-        <v>0.9891347046819741</v>
+        <v>1.042696184105829</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.042363553942231</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.03655262209176</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_30/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.01375947484849</v>
+        <v>1.012645573041173</v>
       </c>
       <c r="D2">
-        <v>1.028658650004163</v>
+        <v>1.027351512825456</v>
       </c>
       <c r="E2">
-        <v>1.026959710550555</v>
+        <v>1.026168556819688</v>
       </c>
       <c r="F2">
-        <v>1.03587825118778</v>
+        <v>1.035242701884032</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.047410675001516</v>
+        <v>1.046975968095102</v>
       </c>
       <c r="J2">
-        <v>1.035536288993844</v>
+        <v>1.034454525393906</v>
       </c>
       <c r="K2">
-        <v>1.039732656260297</v>
+        <v>1.038442508059108</v>
       </c>
       <c r="L2">
-        <v>1.038055808623001</v>
+        <v>1.037274973769145</v>
       </c>
       <c r="M2">
-        <v>1.046859388730446</v>
+        <v>1.046231949789539</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.009637762185257</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.045658435328096</v>
+        <v>1.045161862827587</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.039164707059424</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.038261230506724</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022008307065702</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.019042081162448</v>
+        <v>1.01761935099548</v>
       </c>
       <c r="D3">
-        <v>1.03216403665428</v>
+        <v>1.030508405699875</v>
       </c>
       <c r="E3">
-        <v>1.031149883821679</v>
+        <v>1.030095399725867</v>
       </c>
       <c r="F3">
-        <v>1.039661058112699</v>
+        <v>1.038818503041214</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.048556447447608</v>
+        <v>1.04795905321404</v>
       </c>
       <c r="J3">
-        <v>1.039026765184807</v>
+        <v>1.037640952985937</v>
       </c>
       <c r="K3">
-        <v>1.042401270454534</v>
+        <v>1.04076525783695</v>
       </c>
       <c r="L3">
-        <v>1.041399125525336</v>
+        <v>1.040357157941527</v>
       </c>
       <c r="M3">
-        <v>1.049810423205949</v>
+        <v>1.048977665065492</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.04799396099269</v>
+        <v>1.04733489522557</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.041048987970076</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.039900672730488</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022552280336849</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.022385331984428</v>
+        <v>1.020770638109635</v>
       </c>
       <c r="D4">
-        <v>1.034385218825058</v>
+        <v>1.0325115760731</v>
       </c>
       <c r="E4">
-        <v>1.033807645225675</v>
+        <v>1.032589473592486</v>
       </c>
       <c r="F4">
-        <v>1.042062868629298</v>
+        <v>1.041091710890232</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.049270696328013</v>
+        <v>1.048571591356132</v>
       </c>
       <c r="J4">
-        <v>1.041233249152962</v>
+        <v>1.039657549280801</v>
       </c>
       <c r="K4">
-        <v>1.044085627798282</v>
+        <v>1.0422328321667</v>
       </c>
       <c r="L4">
-        <v>1.043514470671694</v>
+        <v>1.042309861103256</v>
       </c>
       <c r="M4">
-        <v>1.051678813372966</v>
+        <v>1.050718255141079</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.049472649898366</v>
+        <v>1.048712441383715</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.042240864241223</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.040939345075321</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022893271048993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.023779910502027</v>
+        <v>1.022085754917945</v>
       </c>
       <c r="D5">
-        <v>1.035315000969621</v>
+        <v>1.033350874483902</v>
       </c>
       <c r="E5">
-        <v>1.034918313157961</v>
+        <v>1.033632328052388</v>
       </c>
       <c r="F5">
-        <v>1.043066452417997</v>
+        <v>1.042042038970213</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.049568246957736</v>
+        <v>1.048826843110334</v>
       </c>
       <c r="J5">
-        <v>1.042154980646584</v>
+        <v>1.040500486617587</v>
       </c>
       <c r="K5">
-        <v>1.044790701706942</v>
+        <v>1.042847840711518</v>
       </c>
       <c r="L5">
-        <v>1.044398300835738</v>
+        <v>1.043126240912464</v>
       </c>
       <c r="M5">
-        <v>1.052459185404195</v>
+        <v>1.051445650131468</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.050090254218541</v>
+        <v>1.049288119063055</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.042746553412942</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.041382064461166</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023036301570348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.02402075731325</v>
+        <v>1.022312705107486</v>
       </c>
       <c r="D6">
-        <v>1.035478859286105</v>
+        <v>1.033498978232766</v>
       </c>
       <c r="E6">
-        <v>1.035111024747948</v>
+        <v>1.033813101096887</v>
       </c>
       <c r="F6">
-        <v>1.043239774745999</v>
+        <v>1.042205994806261</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.049622256387936</v>
+        <v>1.048873361888085</v>
       </c>
       <c r="J6">
-        <v>1.04231655381816</v>
+        <v>1.040648277667245</v>
       </c>
       <c r="K6">
-        <v>1.044916800650012</v>
+        <v>1.042958256184026</v>
       </c>
       <c r="L6">
-        <v>1.044552922588473</v>
+        <v>1.043268987152484</v>
       </c>
       <c r="M6">
-        <v>1.052595034374973</v>
+        <v>1.051572180945946</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.050197768156895</v>
+        <v>1.049388258510687</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.042844426847512</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.041469721770621</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023062904589105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022424824589344</v>
+        <v>1.020807252820048</v>
       </c>
       <c r="D7">
-        <v>1.034420296199649</v>
+        <v>1.032543622344885</v>
       </c>
       <c r="E7">
-        <v>1.033841333623881</v>
+        <v>1.032620484275564</v>
       </c>
       <c r="F7">
-        <v>1.042091025008944</v>
+        <v>1.041117787281394</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.049286658304983</v>
+        <v>1.048585783760152</v>
       </c>
       <c r="J7">
-        <v>1.041265902608406</v>
+        <v>1.039687376220098</v>
       </c>
       <c r="K7">
-        <v>1.044117447618341</v>
+        <v>1.04226164598598</v>
       </c>
       <c r="L7">
-        <v>1.043544914277892</v>
+        <v>1.042337651230926</v>
       </c>
       <c r="M7">
-        <v>1.051703822729993</v>
+        <v>1.050741203001676</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.049492442884945</v>
+        <v>1.048730602872678</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.042283407572133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.040981772165537</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022902593273306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.015587303102402</v>
+        <v>1.01436486318878</v>
       </c>
       <c r="D8">
-        <v>1.029881994571195</v>
+        <v>1.028453019963918</v>
       </c>
       <c r="E8">
-        <v>1.02841132471551</v>
+        <v>1.027527322118883</v>
       </c>
       <c r="F8">
-        <v>1.037185307089764</v>
+        <v>1.036476785070054</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.047818917533486</v>
+        <v>1.047326833107845</v>
       </c>
       <c r="J8">
-        <v>1.036752814325691</v>
+        <v>1.035564421632587</v>
       </c>
       <c r="K8">
-        <v>1.040671854511358</v>
+        <v>1.039260891019326</v>
       </c>
       <c r="L8">
-        <v>1.039219722244958</v>
+        <v>1.038346894248959</v>
       </c>
       <c r="M8">
-        <v>1.04788407942897</v>
+        <v>1.047184324149746</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.046469403115485</v>
+        <v>1.045915598057894</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.039851673386835</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.038865044737575</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022203891295864</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.002896044930407</v>
+        <v>1.002438699679497</v>
       </c>
       <c r="D9">
-        <v>1.021469123757686</v>
+        <v>1.020893733258188</v>
       </c>
       <c r="E9">
-        <v>1.018378729846412</v>
+        <v>1.018146808418194</v>
       </c>
       <c r="F9">
-        <v>1.028145421808903</v>
+        <v>1.027950003500018</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.044997505563082</v>
+        <v>1.044904476011761</v>
       </c>
       <c r="J9">
-        <v>1.028346949243379</v>
+        <v>1.027905634112773</v>
       </c>
       <c r="K9">
-        <v>1.034223224434102</v>
+        <v>1.033656681438536</v>
       </c>
       <c r="L9">
-        <v>1.031180499926424</v>
+        <v>1.030952170803682</v>
       </c>
       <c r="M9">
-        <v>1.040797786621926</v>
+        <v>1.040605322251946</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.040861101930743</v>
+        <v>1.040708779346449</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.035288868931156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.03489904581816</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020873196036428</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9941200054261069</v>
+        <v>0.9942081166787496</v>
       </c>
       <c r="D10">
-        <v>1.015694184836489</v>
+        <v>1.015717841455118</v>
       </c>
       <c r="E10">
-        <v>1.011523190072755</v>
+        <v>1.011753203418236</v>
       </c>
       <c r="F10">
-        <v>1.022027383597431</v>
+        <v>1.022196236781395</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.043027783759848</v>
+        <v>1.04321255564011</v>
       </c>
       <c r="J10">
-        <v>1.022568873233855</v>
+        <v>1.022653430154036</v>
       </c>
       <c r="K10">
-        <v>1.029785741979055</v>
+        <v>1.029808988393118</v>
       </c>
       <c r="L10">
-        <v>1.025687460642269</v>
+        <v>1.025913443903397</v>
       </c>
       <c r="M10">
-        <v>1.036009999119774</v>
+        <v>1.036175971609739</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.037123404128828</v>
+        <v>1.037254752619089</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.0321681239827</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.032197024110501</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019955862474909</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9913719034105859</v>
+        <v>0.991570304711565</v>
       </c>
       <c r="D11">
-        <v>1.01405180159998</v>
+        <v>1.014202192366981</v>
       </c>
       <c r="E11">
-        <v>1.009741726719395</v>
+        <v>1.010049742634308</v>
       </c>
       <c r="F11">
-        <v>1.020801250127658</v>
+        <v>1.021033310999</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.042674617890591</v>
+        <v>1.042899952114316</v>
       </c>
       <c r="J11">
-        <v>1.021108079157399</v>
+        <v>1.021298022902732</v>
       </c>
       <c r="K11">
-        <v>1.028713499211204</v>
+        <v>1.028861155702816</v>
       </c>
       <c r="L11">
-        <v>1.024482237378827</v>
+        <v>1.024784591913448</v>
       </c>
       <c r="M11">
-        <v>1.035341265210151</v>
+        <v>1.035569179514233</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.037031114109577</v>
+        <v>1.037211391607523</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.031442988099335</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.031563074823471</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019807036374398</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9907853744087348</v>
+        <v>0.9909693027011665</v>
       </c>
       <c r="D12">
-        <v>1.01378885162062</v>
+        <v>1.013928729002756</v>
       </c>
       <c r="E12">
-        <v>1.009553991072111</v>
+        <v>1.009837536920111</v>
       </c>
       <c r="F12">
-        <v>1.020898838001033</v>
+        <v>1.021112927344341</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.042746559515993</v>
+        <v>1.042952607942667</v>
       </c>
       <c r="J12">
-        <v>1.020984899143219</v>
+        <v>1.02116083704685</v>
       </c>
       <c r="K12">
-        <v>1.028656562617938</v>
+        <v>1.028793854817869</v>
       </c>
       <c r="L12">
-        <v>1.024500412491572</v>
+        <v>1.02477866135652</v>
       </c>
       <c r="M12">
-        <v>1.035636310902381</v>
+        <v>1.035846515225085</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.03759128359118</v>
+        <v>1.037757496289178</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.031402731729927</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.031515491517551</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019850845003478</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.991852931073778</v>
+        <v>0.9919225483526818</v>
       </c>
       <c r="D13">
-        <v>1.014597953325523</v>
+        <v>1.014618315324571</v>
       </c>
       <c r="E13">
-        <v>1.010606647913104</v>
+        <v>1.010782946484122</v>
       </c>
       <c r="F13">
-        <v>1.022052302779924</v>
+        <v>1.022183051033982</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.043169812102041</v>
+        <v>1.043307777395822</v>
       </c>
       <c r="J13">
-        <v>1.021912238412339</v>
+        <v>1.021978851157529</v>
       </c>
       <c r="K13">
-        <v>1.029407610063016</v>
+        <v>1.029427597717327</v>
       </c>
       <c r="L13">
-        <v>1.025490062642442</v>
+        <v>1.025663087237055</v>
       </c>
       <c r="M13">
-        <v>1.03672621094998</v>
+        <v>1.036854601159557</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.038729897568412</v>
+        <v>1.038831392715582</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.03193124789594</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.031960816578895</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020056706691832</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9933456571482689</v>
+        <v>0.9932912321799894</v>
       </c>
       <c r="D14">
-        <v>1.015648754155873</v>
+        <v>1.01553706204488</v>
       </c>
       <c r="E14">
-        <v>1.011900823612449</v>
+        <v>1.011965668128385</v>
       </c>
       <c r="F14">
-        <v>1.023333484002863</v>
+        <v>1.023377191469845</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.043624047313684</v>
+        <v>1.043692807546728</v>
       </c>
       <c r="J14">
-        <v>1.023033962777186</v>
+        <v>1.022981848890662</v>
       </c>
       <c r="K14">
-        <v>1.030298061206312</v>
+        <v>1.030188394811785</v>
       </c>
       <c r="L14">
-        <v>1.026618423499586</v>
+        <v>1.026682080852907</v>
       </c>
       <c r="M14">
-        <v>1.037844794157812</v>
+        <v>1.037887724449576</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.039787465064048</v>
+        <v>1.039821397789244</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.03256226128059</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.032500287144241</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020274179744699</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9940792882480864</v>
+        <v>0.9939723273496095</v>
       </c>
       <c r="D15">
-        <v>1.016147998588166</v>
+        <v>1.015979654582925</v>
       </c>
       <c r="E15">
-        <v>1.012499664226419</v>
+        <v>1.012518757335529</v>
       </c>
       <c r="F15">
-        <v>1.02389455980049</v>
+        <v>1.023902396853526</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.04381709653082</v>
+        <v>1.043857902891957</v>
       </c>
       <c r="J15">
-        <v>1.023547873368457</v>
+        <v>1.023445411290132</v>
       </c>
       <c r="K15">
-        <v>1.030701406913654</v>
+        <v>1.030536091582198</v>
       </c>
       <c r="L15">
-        <v>1.02711900314723</v>
+        <v>1.027137749607789</v>
       </c>
       <c r="M15">
-        <v>1.038309996748715</v>
+        <v>1.038317695589281</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.01017436097146</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.040192694404925</v>
+        <v>1.040198779521177</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.032853332706131</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.032752579770429</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020365767043828</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9975952784958126</v>
+        <v>0.9972788375511502</v>
       </c>
       <c r="D16">
-        <v>1.018438298010012</v>
+        <v>1.018039242492861</v>
       </c>
       <c r="E16">
-        <v>1.015204530758107</v>
+        <v>1.015049472580039</v>
       </c>
       <c r="F16">
-        <v>1.026293366849183</v>
+        <v>1.026163796355825</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.044583805932454</v>
+        <v>1.044520915612629</v>
       </c>
       <c r="J16">
-        <v>1.025827539018074</v>
+        <v>1.025523704113387</v>
       </c>
       <c r="K16">
-        <v>1.032446712386099</v>
+        <v>1.032054511922218</v>
       </c>
       <c r="L16">
-        <v>1.029268696099411</v>
+        <v>1.029116322711084</v>
       </c>
       <c r="M16">
-        <v>1.04016824494896</v>
+        <v>1.040040855768286</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.041622754906809</v>
+        <v>1.041522064338186</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.034090500998339</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.033829620410403</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020720636313323</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.999511716879418</v>
+        <v>0.9990996732204219</v>
       </c>
       <c r="D17">
-        <v>1.019647084459639</v>
+        <v>1.019140235257948</v>
       </c>
       <c r="E17">
-        <v>1.016603280501985</v>
+        <v>1.016372852801672</v>
       </c>
       <c r="F17">
-        <v>1.027458723346239</v>
+        <v>1.027269199731118</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.044932125420628</v>
+        <v>1.044825751779271</v>
       </c>
       <c r="J17">
-        <v>1.02698867202785</v>
+        <v>1.026592493678367</v>
       </c>
       <c r="K17">
-        <v>1.033319180750883</v>
+        <v>1.03282078812572</v>
       </c>
       <c r="L17">
-        <v>1.03032632485429</v>
+        <v>1.030099770140534</v>
       </c>
       <c r="M17">
-        <v>1.04100184193211</v>
+        <v>1.040815417689415</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.042152728606793</v>
+        <v>1.042005361020553</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.03470996032675</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.034374240850719</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020878371098763</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.000204927463856</v>
+        <v>0.9997879726818335</v>
       </c>
       <c r="D18">
-        <v>1.020009812988568</v>
+        <v>1.019493227417708</v>
       </c>
       <c r="E18">
-        <v>1.016966077537165</v>
+        <v>1.016740198377595</v>
       </c>
       <c r="F18">
-        <v>1.027610430535976</v>
+        <v>1.02742343293714</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.044936469281377</v>
+        <v>1.044836098710335</v>
       </c>
       <c r="J18">
-        <v>1.027260195120967</v>
+        <v>1.026858992547302</v>
       </c>
       <c r="K18">
-        <v>1.033491864150545</v>
+        <v>1.032983756836674</v>
       </c>
       <c r="L18">
-        <v>1.030498242560178</v>
+        <v>1.030276097800838</v>
       </c>
       <c r="M18">
-        <v>1.040969003832344</v>
+        <v>1.040785016026427</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.041889312593644</v>
+        <v>1.041743840736553</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.034820393494814</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.034476667278947</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020871690320842</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.99983853465664</v>
+        <v>0.9994912813826107</v>
       </c>
       <c r="D19">
-        <v>1.019658348362152</v>
+        <v>1.019213469961319</v>
       </c>
       <c r="E19">
-        <v>1.016430679728085</v>
+        <v>1.016274430874946</v>
       </c>
       <c r="F19">
-        <v>1.026871025706589</v>
+        <v>1.02673752319063</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.044660352615643</v>
+        <v>1.044606064721836</v>
       </c>
       <c r="J19">
-        <v>1.026772980427102</v>
+        <v>1.02643878155947</v>
       </c>
       <c r="K19">
-        <v>1.033083394904433</v>
+        <v>1.03264578469716</v>
       </c>
       <c r="L19">
-        <v>1.029908643961185</v>
+        <v>1.029754967783771</v>
       </c>
       <c r="M19">
-        <v>1.040179362269341</v>
+        <v>1.040048000885019</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624639</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.040939699215576</v>
+        <v>1.04083580310373</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.034538001708789</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.034244748468658</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020734157324157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9964647791902242</v>
+        <v>0.9964022284102527</v>
       </c>
       <c r="D20">
-        <v>1.017259367363251</v>
+        <v>1.017119215003439</v>
       </c>
       <c r="E20">
-        <v>1.013361570802086</v>
+        <v>1.013463251425859</v>
       </c>
       <c r="F20">
-        <v>1.023663396224372</v>
+        <v>1.023731108568845</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.043579547421676</v>
+        <v>1.043687040289545</v>
       </c>
       <c r="J20">
-        <v>1.024132661165376</v>
+        <v>1.02407254607486</v>
       </c>
       <c r="K20">
-        <v>1.031005372051728</v>
+        <v>1.030867577856559</v>
       </c>
       <c r="L20">
-        <v>1.027173472692207</v>
+        <v>1.027273425963251</v>
       </c>
       <c r="M20">
-        <v>1.037302535201448</v>
+        <v>1.037369126806644</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.038135745863227</v>
+        <v>1.038188446209453</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.033072699696579</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.032991832033551</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020216962671593</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9896122952679931</v>
+        <v>0.9899972483840507</v>
       </c>
       <c r="D21">
-        <v>1.012727123916045</v>
+        <v>1.013072640510354</v>
       </c>
       <c r="E21">
-        <v>1.007954911956118</v>
+        <v>1.00843760759567</v>
       </c>
       <c r="F21">
-        <v>1.018773428444002</v>
+        <v>1.019141544742866</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.041970544451622</v>
+        <v>1.042306488722915</v>
       </c>
       <c r="J21">
-        <v>1.019550835096103</v>
+        <v>1.019919216471923</v>
       </c>
       <c r="K21">
-        <v>1.027471323161726</v>
+        <v>1.027810509159712</v>
       </c>
       <c r="L21">
-        <v>1.022787127230673</v>
+        <v>1.023260870919998</v>
       </c>
       <c r="M21">
-        <v>1.033407652452137</v>
+        <v>1.033769127923195</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.035012285289745</v>
+        <v>1.035298371031001</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.030577241118144</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.03083397095512</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019467814003338</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9852335265082255</v>
+        <v>0.9859088014737617</v>
       </c>
       <c r="D22">
-        <v>1.009836907345669</v>
+        <v>1.010494497655992</v>
       </c>
       <c r="E22">
-        <v>1.004528159561371</v>
+        <v>1.005256994941154</v>
       </c>
       <c r="F22">
-        <v>1.015703204175472</v>
+        <v>1.016265618363707</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.040939606184192</v>
+        <v>1.041421785768165</v>
       </c>
       <c r="J22">
-        <v>1.016635800729915</v>
+        <v>1.017280177050206</v>
       </c>
       <c r="K22">
-        <v>1.025215979884581</v>
+        <v>1.025860884379018</v>
       </c>
       <c r="L22">
-        <v>1.02001044329574</v>
+        <v>1.020725024168565</v>
       </c>
       <c r="M22">
-        <v>1.030969866802253</v>
+        <v>1.031521593158428</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.03308292391884</v>
+        <v>1.033519582756439</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.028969022343332</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.029440626454085</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018988646631131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9875442835099523</v>
+        <v>0.988066750898694</v>
       </c>
       <c r="D23">
-        <v>1.011352983714711</v>
+        <v>1.011846346046238</v>
       </c>
       <c r="E23">
-        <v>1.006332636572213</v>
+        <v>1.006932294562983</v>
       </c>
       <c r="F23">
-        <v>1.017321862216326</v>
+        <v>1.017782251234606</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.041477220184146</v>
+        <v>1.041882939463544</v>
       </c>
       <c r="J23">
-        <v>1.018167819673978</v>
+        <v>1.018667135922794</v>
       </c>
       <c r="K23">
-        <v>1.026395159581319</v>
+        <v>1.026879258689195</v>
       </c>
       <c r="L23">
-        <v>1.021469748495223</v>
+        <v>1.022058001694562</v>
       </c>
       <c r="M23">
-        <v>1.032252754579036</v>
+        <v>1.032704630803792</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.034098253435852</v>
+        <v>1.034455886293269</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.029793062494426</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.030150018108403</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019236583708624</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9964345899336908</v>
+        <v>0.99638110020644</v>
       </c>
       <c r="D24">
-        <v>1.017212597298766</v>
+        <v>1.017081348166034</v>
       </c>
       <c r="E24">
-        <v>1.013299787941457</v>
+        <v>1.01341089095932</v>
       </c>
       <c r="F24">
-        <v>1.023575328806192</v>
+        <v>1.023650266458999</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.043536683518006</v>
+        <v>1.043650578897193</v>
       </c>
       <c r="J24">
-        <v>1.024070581569571</v>
+        <v>1.024019171922903</v>
       </c>
       <c r="K24">
-        <v>1.030944035860953</v>
+        <v>1.030814992493032</v>
       </c>
       <c r="L24">
-        <v>1.027097301716528</v>
+        <v>1.027206519463894</v>
       </c>
       <c r="M24">
-        <v>1.037200708858933</v>
+        <v>1.037274407508151</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.038014251849669</v>
+        <v>1.038072579588856</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.033001823362134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.032924468920316</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020193235584693</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.006289392120845</v>
+        <v>1.005622115724708</v>
       </c>
       <c r="D25">
-        <v>1.023729274605312</v>
+        <v>1.022921801857035</v>
       </c>
       <c r="E25">
-        <v>1.021059179230216</v>
+        <v>1.020648037514232</v>
       </c>
       <c r="F25">
-        <v>1.030554367001113</v>
+        <v>1.030217880083334</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.045773765180588</v>
+        <v>1.045571529318844</v>
       </c>
       <c r="J25">
-        <v>1.030606931296306</v>
+        <v>1.029961743383153</v>
       </c>
       <c r="K25">
-        <v>1.035970062599203</v>
+        <v>1.035174409927108</v>
       </c>
       <c r="L25">
-        <v>1.03333914358425</v>
+        <v>1.032934057379816</v>
       </c>
       <c r="M25">
-        <v>1.042696184105829</v>
+        <v>1.04236453766758</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.042363553942231</v>
+        <v>1.04210107865143</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.03655262209176</v>
+        <v>1.0360036064778</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021240406397377</v>
       </c>
     </row>
   </sheetData>
